--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_22_15.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_22_15.xlsx
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>21633492.83029715</v>
+        <v>21633492.83029712</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3833321.954571246</v>
+        <v>3833321.954571245</v>
       </c>
     </row>
     <row r="11">
@@ -1379,19 +1379,19 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>22.6422676331184</v>
+        <v>22.64226763311835</v>
       </c>
       <c r="G11" t="n">
-        <v>63.72009317370575</v>
+        <v>63.72009317370569</v>
       </c>
       <c r="H11" t="n">
-        <v>63.72009317370575</v>
+        <v>63.72009317370569</v>
       </c>
       <c r="I11" t="n">
-        <v>63.72009317370575</v>
+        <v>63.72009317370569</v>
       </c>
       <c r="J11" t="n">
-        <v>33.03921963138498</v>
+        <v>33.03921963138501</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1461,13 +1461,13 @@
         <v>17.4387989770762</v>
       </c>
       <c r="G12" t="n">
-        <v>63.72009317370575</v>
+        <v>63.72009317370569</v>
       </c>
       <c r="H12" t="n">
-        <v>63.72009317370575</v>
+        <v>63.72009317370569</v>
       </c>
       <c r="I12" t="n">
-        <v>63.72009317370575</v>
+        <v>63.72009317370569</v>
       </c>
       <c r="J12" t="n">
         <v>38.68585909032379</v>
@@ -1616,19 +1616,19 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>22.64226763311835</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>63.72009317370569</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>63.72009317370569</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>63.72009317370569</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>33.03921963138501</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1649,19 +1649,19 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>33.99002226829958</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>63.72009317370573</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>63.72009317370573</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>63.72009317370573</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>21.69146499620377</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1695,19 +1695,19 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>17.4387989770762</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>63.72009317370569</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>63.72009317370569</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>63.72009317370569</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>38.68585909032379</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1743,16 +1743,16 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>56.12465806739999</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>63.72009317370573</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>63.72009317370573</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>63.72009317370573</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1865,7 +1865,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>33.03921963138501</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1886,19 +1886,19 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>33.99002226829958</v>
+        <v>33.99002226829961</v>
       </c>
       <c r="R17" t="n">
-        <v>63.72009317370573</v>
+        <v>63.72009317370569</v>
       </c>
       <c r="S17" t="n">
-        <v>63.72009317370573</v>
+        <v>63.72009317370569</v>
       </c>
       <c r="T17" t="n">
-        <v>63.72009317370573</v>
+        <v>52.37233853852445</v>
       </c>
       <c r="U17" t="n">
-        <v>21.69146499620383</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1938,13 +1938,13 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>63.72009317370569</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>63.72009317370569</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>38.68585909032379</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1965,19 +1965,19 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>20.88010547537745</v>
+        <v>17.4387989770762</v>
       </c>
       <c r="R18" t="n">
-        <v>63.72009317370573</v>
+        <v>63.72009317370569</v>
       </c>
       <c r="S18" t="n">
-        <v>63.72009317370573</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>63.72009317370573</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>35.24455259202252</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -2078,11 +2078,11 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>43.06077022408563</v>
+      </c>
+      <c r="C20" t="n">
         <v>75.8577321816089</v>
       </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
@@ -2093,14 +2093,14 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
         <v>75.8577321816089</v>
       </c>
-      <c r="H20" t="n">
-        <v>9.070747955786073</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
       <c r="J20" t="n">
         <v>0</v>
       </c>
@@ -2123,28 +2123,28 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>33.99002226829958</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
         <v>75.8577321816089</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2163,70 +2163,70 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>66.8154905055611</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>20.88010547537746</v>
+      </c>
+      <c r="R21" t="n">
         <v>75.8577321816089</v>
       </c>
-      <c r="F21" t="n">
+      <c r="S21" t="n">
         <v>75.8577321816089</v>
       </c>
-      <c r="G21" t="n">
+      <c r="T21" t="n">
+        <v>45.93538503018362</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y21" t="n">
         <v>75.8577321816089</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>0</v>
-      </c>
-      <c r="R21" t="n">
-        <v>0</v>
-      </c>
-      <c r="S21" t="n">
-        <v>0</v>
-      </c>
-      <c r="T21" t="n">
-        <v>0</v>
-      </c>
-      <c r="U21" t="n">
-        <v>0</v>
-      </c>
-      <c r="V21" t="n">
-        <v>0</v>
-      </c>
-      <c r="W21" t="n">
-        <v>0</v>
-      </c>
-      <c r="X21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2315,64 +2315,64 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
         <v>75.8577321816089</v>
       </c>
-      <c r="C23" t="n">
+      <c r="I23" t="n">
         <v>75.8577321816089</v>
       </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>43.06077022408563</v>
+      </c>
+      <c r="T23" t="n">
         <v>75.8577321816089</v>
       </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
       <c r="U23" t="n">
-        <v>43.06077022408569</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2397,64 +2397,64 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>28.12963141523729</v>
+      </c>
+      <c r="J24" t="n">
+        <v>38.68585909032379</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
+      <c r="S24" t="n">
         <v>75.8577321816089</v>
       </c>
-      <c r="D24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>20.88010547537745</v>
-      </c>
-      <c r="R24" t="n">
-        <v>0</v>
-      </c>
-      <c r="S24" t="n">
-        <v>0</v>
-      </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>75.8577321816089</v>
       </c>
       <c r="U24" t="n">
-        <v>45.93538503018365</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>75.8577321816089</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>75.8577321816089</v>
@@ -2561,7 +2561,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>75.8577321816089</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -2597,31 +2597,31 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>33.99002226829958</v>
+        <v>33.99002226829961</v>
       </c>
       <c r="R26" t="n">
         <v>75.8577321816089</v>
       </c>
       <c r="S26" t="n">
+        <v>9.070747955786031</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="n">
         <v>75.8577321816089</v>
-      </c>
-      <c r="T26" t="n">
-        <v>75.8577321816089</v>
-      </c>
-      <c r="U26" t="n">
-        <v>9.070747955786073</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2637,67 +2637,67 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>75.8577321816089</v>
       </c>
       <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
         <v>75.8577321816089</v>
       </c>
-      <c r="F27" t="n">
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>20.88010547537746</v>
+      </c>
+      <c r="R27" t="n">
+        <v>45.93538503018365</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0</v>
+      </c>
+      <c r="X27" t="n">
         <v>75.8577321816089</v>
-      </c>
-      <c r="G27" t="n">
-        <v>75.8577321816089</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>0</v>
-      </c>
-      <c r="R27" t="n">
-        <v>0</v>
-      </c>
-      <c r="S27" t="n">
-        <v>0</v>
-      </c>
-      <c r="T27" t="n">
-        <v>0</v>
-      </c>
-      <c r="U27" t="n">
-        <v>0</v>
-      </c>
-      <c r="V27" t="n">
-        <v>66.8154905055611</v>
-      </c>
-      <c r="W27" t="n">
-        <v>0</v>
-      </c>
-      <c r="X27" t="n">
-        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2834,10 +2834,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>33.99002226829958</v>
+        <v>33.99002226829961</v>
       </c>
       <c r="R29" t="n">
-        <v>9.070747955786086</v>
+        <v>75.8577321816089</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2849,13 +2849,13 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
         <v>75.8577321816089</v>
       </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
       <c r="X29" t="n">
-        <v>75.8577321816089</v>
+        <v>9.070747955786016</v>
       </c>
       <c r="Y29" t="n">
         <v>75.8577321816089</v>
@@ -2868,56 +2868,56 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>66.81549050556107</v>
       </c>
       <c r="C30" t="n">
-        <v>66.81549050556107</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0</v>
+      </c>
+      <c r="R30" t="n">
         <v>75.8577321816089</v>
       </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" t="n">
-        <v>0</v>
-      </c>
-      <c r="G30" t="n">
-        <v>0</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>0</v>
-      </c>
-      <c r="R30" t="n">
-        <v>0</v>
-      </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
@@ -2925,19 +2925,19 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>75.8577321816089</v>
       </c>
       <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0</v>
+      </c>
+      <c r="X30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y30" t="n">
         <v>75.8577321816089</v>
-      </c>
-      <c r="W30" t="n">
-        <v>75.8577321816089</v>
-      </c>
-      <c r="X30" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -3029,22 +3029,22 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>81.74560209899624</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>81.7456020989963</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>31.16786177795489</v>
+        <v>81.74560209899624</v>
       </c>
       <c r="H32" t="n">
-        <v>81.7456020989963</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3074,7 +3074,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>81.7456020989963</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3089,10 +3089,10 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>31.1678617779549</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>81.74560209899624</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3105,28 +3105,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>81.74560209899624</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>72.0015263287959</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>81.74560209899624</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>81.7456020989963</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>67.39799508405869</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3156,7 +3156,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>4.603531244737258</v>
+        <v>81.74560209899624</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -3165,10 +3165,10 @@
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>81.7456020989963</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>81.7456020989963</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>55.6814872645031</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3275,7 +3275,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>55.6814872645034</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3317,22 +3317,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>63.72009317370575</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>63.72009317370575</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>63.72009317370592</v>
       </c>
       <c r="W35" t="n">
-        <v>63.72009317370575</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>63.72009317370592</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>63.72009317370592</v>
       </c>
     </row>
     <row r="36">
@@ -3342,13 +3342,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>63.72009317370575</v>
+        <v>63.72009317370592</v>
       </c>
       <c r="C36" t="n">
-        <v>63.72009317370575</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>56.12465806740001</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -3399,7 +3399,7 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>56.12465806740015</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -3408,10 +3408,10 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>63.72009317370592</v>
       </c>
       <c r="Y36" t="n">
-        <v>63.72009317370575</v>
+        <v>63.72009317370592</v>
       </c>
     </row>
     <row r="37">
@@ -3500,13 +3500,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>55.6814872645034</v>
+        <v>63.72009317370569</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>63.72009317370569</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -3557,19 +3557,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>55.68148726450338</v>
       </c>
       <c r="V38" t="n">
-        <v>63.72009317370575</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>63.72009317370575</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>63.72009317370575</v>
+        <v>63.72009317370569</v>
       </c>
     </row>
     <row r="39">
@@ -3594,7 +3594,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>35.24455259202252</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3624,31 +3624,31 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>20.88010547537745</v>
+        <v>20.88010547537746</v>
       </c>
       <c r="R39" t="n">
-        <v>35.24455259202253</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>63.72009317370569</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>63.72009317370569</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>63.72009317370575</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>63.72009317370575</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>63.72009317370575</v>
+        <v>63.72009317370569</v>
       </c>
     </row>
     <row r="40">
@@ -3740,7 +3740,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>63.72009317370575</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3749,13 +3749,13 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>55.6814872645034</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>63.72009317370575</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>55.68148726450337</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3794,13 +3794,13 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>63.72009317370569</v>
       </c>
       <c r="V41" t="n">
-        <v>63.72009317370575</v>
+        <v>63.72009317370569</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>63.72009317370569</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3819,13 +3819,13 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>63.72009317370575</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>63.72009317370575</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -3873,16 +3873,16 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>56.12465806739999</v>
       </c>
       <c r="V42" t="n">
-        <v>56.12465806739999</v>
+        <v>63.72009317370569</v>
       </c>
       <c r="W42" t="n">
-        <v>63.72009317370575</v>
+        <v>63.72009317370569</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>63.72009317370569</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -3980,7 +3980,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>51.58245416580259</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -4022,28 +4022,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>51.58245416580254</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>51.58245416580254</v>
       </c>
       <c r="U44" t="n">
-        <v>45.43382562923887</v>
+        <v>45.43382562923886</v>
       </c>
       <c r="V44" t="n">
-        <v>51.58245416580259</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>51.58245416580259</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>51.58245416580254</v>
       </c>
     </row>
     <row r="45">
@@ -4056,10 +4056,10 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>24.55372015386145</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>51.58245416580259</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -4071,7 +4071,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>24.5537201538614</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4098,13 +4098,13 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>20.88010547537745</v>
+        <v>20.88010547537746</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>51.58245416580254</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -4113,16 +4113,16 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>51.58245416580254</v>
       </c>
       <c r="W45" t="n">
-        <v>51.58245416580259</v>
+        <v>51.58245416580254</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>51.58245416580259</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>254.4327254191699</v>
+        <v>254.4327254191696</v>
       </c>
       <c r="C11" t="n">
-        <v>254.4327254191699</v>
+        <v>254.4327254191696</v>
       </c>
       <c r="D11" t="n">
-        <v>254.4327254191699</v>
+        <v>254.4327254191696</v>
       </c>
       <c r="E11" t="n">
-        <v>254.4327254191699</v>
+        <v>254.4327254191696</v>
       </c>
       <c r="F11" t="n">
-        <v>231.5617480119795</v>
+        <v>231.5617480119794</v>
       </c>
       <c r="G11" t="n">
-        <v>167.1980175334889</v>
+        <v>167.1980175334888</v>
       </c>
       <c r="H11" t="n">
         <v>102.8342870549982</v>
       </c>
       <c r="I11" t="n">
-        <v>38.47055657650755</v>
+        <v>38.47055657650758</v>
       </c>
       <c r="J11" t="n">
-        <v>5.09760745389646</v>
+        <v>5.097607453896456</v>
       </c>
       <c r="K11" t="n">
-        <v>6.814072263517166</v>
+        <v>6.814072263517133</v>
       </c>
       <c r="L11" t="n">
-        <v>45.84526049799178</v>
+        <v>45.84526049799175</v>
       </c>
       <c r="M11" t="n">
-        <v>108.9281527399605</v>
+        <v>108.9281527399604</v>
       </c>
       <c r="N11" t="n">
-        <v>172.0110449819292</v>
+        <v>172.011044981929</v>
       </c>
       <c r="O11" t="n">
-        <v>235.0939372238979</v>
+        <v>235.0939372238977</v>
       </c>
       <c r="P11" t="n">
-        <v>254.4327254191699</v>
+        <v>254.4327254191696</v>
       </c>
       <c r="Q11" t="n">
-        <v>254.4327254191699</v>
+        <v>254.4327254191696</v>
       </c>
       <c r="R11" t="n">
-        <v>254.4327254191699</v>
+        <v>254.4327254191696</v>
       </c>
       <c r="S11" t="n">
-        <v>254.4327254191699</v>
+        <v>254.4327254191696</v>
       </c>
       <c r="T11" t="n">
-        <v>254.4327254191699</v>
+        <v>254.4327254191696</v>
       </c>
       <c r="U11" t="n">
-        <v>254.4327254191699</v>
+        <v>254.4327254191696</v>
       </c>
       <c r="V11" t="n">
-        <v>254.4327254191699</v>
+        <v>254.4327254191696</v>
       </c>
       <c r="W11" t="n">
-        <v>254.4327254191699</v>
+        <v>254.4327254191696</v>
       </c>
       <c r="X11" t="n">
-        <v>254.4327254191699</v>
+        <v>254.4327254191696</v>
       </c>
       <c r="Y11" t="n">
-        <v>254.4327254191699</v>
+        <v>254.4327254191696</v>
       </c>
     </row>
     <row r="12">
@@ -5094,22 +5094,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>254.880372694823</v>
+        <v>254.8803726948228</v>
       </c>
       <c r="C12" t="n">
-        <v>254.880372694823</v>
+        <v>254.8803726948228</v>
       </c>
       <c r="D12" t="n">
-        <v>254.880372694823</v>
+        <v>254.8803726948228</v>
       </c>
       <c r="E12" t="n">
-        <v>254.880372694823</v>
+        <v>254.8803726948228</v>
       </c>
       <c r="F12" t="n">
-        <v>237.2654242331299</v>
+        <v>237.2654242331296</v>
       </c>
       <c r="G12" t="n">
-        <v>172.9016937546392</v>
+        <v>172.901693754639</v>
       </c>
       <c r="H12" t="n">
         <v>108.5379632761485</v>
@@ -5118,52 +5118,52 @@
         <v>44.17423279765787</v>
       </c>
       <c r="J12" t="n">
-        <v>5.09760745389646</v>
+        <v>5.097607453896456</v>
       </c>
       <c r="K12" t="n">
-        <v>5.09760745389646</v>
+        <v>17.79334015026308</v>
       </c>
       <c r="L12" t="n">
-        <v>68.18049969586515</v>
+        <v>65.63169596891686</v>
       </c>
       <c r="M12" t="n">
-        <v>131.2633919378338</v>
+        <v>128.7145882108855</v>
       </c>
       <c r="N12" t="n">
-        <v>194.3462841798025</v>
+        <v>191.7974804528541</v>
       </c>
       <c r="O12" t="n">
-        <v>254.880372694823</v>
+        <v>254.8803726948228</v>
       </c>
       <c r="P12" t="n">
-        <v>254.880372694823</v>
+        <v>254.8803726948228</v>
       </c>
       <c r="Q12" t="n">
-        <v>254.880372694823</v>
+        <v>254.8803726948228</v>
       </c>
       <c r="R12" t="n">
-        <v>254.880372694823</v>
+        <v>254.8803726948228</v>
       </c>
       <c r="S12" t="n">
-        <v>254.880372694823</v>
+        <v>254.8803726948228</v>
       </c>
       <c r="T12" t="n">
-        <v>254.880372694823</v>
+        <v>254.8803726948228</v>
       </c>
       <c r="U12" t="n">
-        <v>254.880372694823</v>
+        <v>254.8803726948228</v>
       </c>
       <c r="V12" t="n">
-        <v>254.880372694823</v>
+        <v>254.8803726948228</v>
       </c>
       <c r="W12" t="n">
-        <v>254.880372694823</v>
+        <v>254.8803726948228</v>
       </c>
       <c r="X12" t="n">
-        <v>254.880372694823</v>
+        <v>254.8803726948228</v>
       </c>
       <c r="Y12" t="n">
-        <v>254.880372694823</v>
+        <v>254.8803726948228</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>5.09760745389646</v>
+        <v>5.097607453896456</v>
       </c>
       <c r="C13" t="n">
-        <v>5.09760745389646</v>
+        <v>5.097607453896456</v>
       </c>
       <c r="D13" t="n">
-        <v>5.09760745389646</v>
+        <v>5.097607453896456</v>
       </c>
       <c r="E13" t="n">
-        <v>5.09760745389646</v>
+        <v>5.097607453896456</v>
       </c>
       <c r="F13" t="n">
-        <v>5.09760745389646</v>
+        <v>5.097607453896456</v>
       </c>
       <c r="G13" t="n">
-        <v>5.09760745389646</v>
+        <v>5.097607453896456</v>
       </c>
       <c r="H13" t="n">
-        <v>5.09760745389646</v>
+        <v>5.097607453896456</v>
       </c>
       <c r="I13" t="n">
-        <v>5.09760745389646</v>
+        <v>5.097607453896456</v>
       </c>
       <c r="J13" t="n">
-        <v>5.09760745389646</v>
+        <v>5.097607453896456</v>
       </c>
       <c r="K13" t="n">
-        <v>5.09760745389646</v>
+        <v>5.097607453896456</v>
       </c>
       <c r="L13" t="n">
-        <v>5.09760745389646</v>
+        <v>5.097607453896456</v>
       </c>
       <c r="M13" t="n">
-        <v>5.09760745389646</v>
+        <v>5.097607453896456</v>
       </c>
       <c r="N13" t="n">
-        <v>5.09760745389646</v>
+        <v>5.097607453896456</v>
       </c>
       <c r="O13" t="n">
-        <v>5.09760745389646</v>
+        <v>5.097607453896456</v>
       </c>
       <c r="P13" t="n">
-        <v>5.09760745389646</v>
+        <v>5.097607453896456</v>
       </c>
       <c r="Q13" t="n">
-        <v>5.09760745389646</v>
+        <v>5.097607453896456</v>
       </c>
       <c r="R13" t="n">
-        <v>5.09760745389646</v>
+        <v>5.097607453896456</v>
       </c>
       <c r="S13" t="n">
-        <v>5.09760745389646</v>
+        <v>5.097607453896456</v>
       </c>
       <c r="T13" t="n">
-        <v>5.09760745389646</v>
+        <v>5.097607453896456</v>
       </c>
       <c r="U13" t="n">
-        <v>5.09760745389646</v>
+        <v>5.097607453896456</v>
       </c>
       <c r="V13" t="n">
-        <v>5.09760745389646</v>
+        <v>5.097607453896456</v>
       </c>
       <c r="W13" t="n">
-        <v>5.09760745389646</v>
+        <v>5.097607453896456</v>
       </c>
       <c r="X13" t="n">
-        <v>5.09760745389646</v>
+        <v>5.097607453896456</v>
       </c>
       <c r="Y13" t="n">
-        <v>5.09760745389646</v>
+        <v>5.097607453896456</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5.097607453896459</v>
+        <v>254.4327254191696</v>
       </c>
       <c r="C14" t="n">
-        <v>5.097607453896459</v>
+        <v>254.4327254191696</v>
       </c>
       <c r="D14" t="n">
-        <v>5.097607453896459</v>
+        <v>254.4327254191696</v>
       </c>
       <c r="E14" t="n">
-        <v>5.097607453896459</v>
+        <v>254.4327254191696</v>
       </c>
       <c r="F14" t="n">
-        <v>5.097607453896459</v>
+        <v>231.5617480119794</v>
       </c>
       <c r="G14" t="n">
-        <v>5.097607453896459</v>
+        <v>167.1980175334888</v>
       </c>
       <c r="H14" t="n">
-        <v>5.097607453896459</v>
+        <v>102.8342870549982</v>
       </c>
       <c r="I14" t="n">
-        <v>5.097607453896459</v>
+        <v>38.47055657650758</v>
       </c>
       <c r="J14" t="n">
-        <v>5.097607453896459</v>
+        <v>5.097607453896456</v>
       </c>
       <c r="K14" t="n">
-        <v>6.814072263517165</v>
+        <v>6.814072263517133</v>
       </c>
       <c r="L14" t="n">
-        <v>45.84526049799177</v>
+        <v>45.84526049799175</v>
       </c>
       <c r="M14" t="n">
-        <v>108.9281527399605</v>
+        <v>108.9281527399604</v>
       </c>
       <c r="N14" t="n">
-        <v>172.0110449819291</v>
+        <v>172.011044981929</v>
       </c>
       <c r="O14" t="n">
-        <v>235.0939372238978</v>
+        <v>235.0939372238977</v>
       </c>
       <c r="P14" t="n">
-        <v>254.4327254191698</v>
+        <v>254.4327254191696</v>
       </c>
       <c r="Q14" t="n">
-        <v>220.0993695926045</v>
+        <v>254.4327254191696</v>
       </c>
       <c r="R14" t="n">
-        <v>155.7356391141139</v>
+        <v>254.4327254191696</v>
       </c>
       <c r="S14" t="n">
-        <v>91.37190863562324</v>
+        <v>254.4327254191696</v>
       </c>
       <c r="T14" t="n">
-        <v>27.00817815713259</v>
+        <v>254.4327254191696</v>
       </c>
       <c r="U14" t="n">
-        <v>5.097607453896459</v>
+        <v>254.4327254191696</v>
       </c>
       <c r="V14" t="n">
-        <v>5.097607453896459</v>
+        <v>254.4327254191696</v>
       </c>
       <c r="W14" t="n">
-        <v>5.097607453896459</v>
+        <v>254.4327254191696</v>
       </c>
       <c r="X14" t="n">
-        <v>5.097607453896459</v>
+        <v>254.4327254191696</v>
       </c>
       <c r="Y14" t="n">
-        <v>5.097607453896459</v>
+        <v>254.4327254191696</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>5.097607453896459</v>
+        <v>254.8803726948228</v>
       </c>
       <c r="C15" t="n">
-        <v>5.097607453896459</v>
+        <v>254.8803726948228</v>
       </c>
       <c r="D15" t="n">
-        <v>5.097607453896459</v>
+        <v>254.8803726948228</v>
       </c>
       <c r="E15" t="n">
-        <v>5.097607453896459</v>
+        <v>254.8803726948228</v>
       </c>
       <c r="F15" t="n">
-        <v>5.097607453896459</v>
+        <v>237.2654242331296</v>
       </c>
       <c r="G15" t="n">
-        <v>5.097607453896459</v>
+        <v>172.901693754639</v>
       </c>
       <c r="H15" t="n">
-        <v>5.097607453896459</v>
+        <v>108.5379632761485</v>
       </c>
       <c r="I15" t="n">
-        <v>5.097607453896459</v>
+        <v>44.17423279765787</v>
       </c>
       <c r="J15" t="n">
-        <v>5.097607453896459</v>
+        <v>5.097607453896456</v>
       </c>
       <c r="K15" t="n">
-        <v>17.79334015026311</v>
+        <v>17.79334015026308</v>
       </c>
       <c r="L15" t="n">
-        <v>80.87623239223178</v>
+        <v>80.87623239223171</v>
       </c>
       <c r="M15" t="n">
-        <v>84.96133361915527</v>
+        <v>143.9591246342004</v>
       </c>
       <c r="N15" t="n">
         <v>148.0442258611239</v>
       </c>
       <c r="O15" t="n">
-        <v>211.1271181030926</v>
+        <v>211.1271181030925</v>
       </c>
       <c r="P15" t="n">
-        <v>254.8803726948229</v>
+        <v>254.8803726948228</v>
       </c>
       <c r="Q15" t="n">
-        <v>254.8803726948229</v>
+        <v>254.8803726948228</v>
       </c>
       <c r="R15" t="n">
-        <v>254.8803726948229</v>
+        <v>254.8803726948228</v>
       </c>
       <c r="S15" t="n">
-        <v>254.8803726948229</v>
+        <v>254.8803726948228</v>
       </c>
       <c r="T15" t="n">
-        <v>254.8803726948229</v>
+        <v>254.8803726948228</v>
       </c>
       <c r="U15" t="n">
-        <v>254.8803726948229</v>
+        <v>254.8803726948228</v>
       </c>
       <c r="V15" t="n">
-        <v>198.1887988893684</v>
+        <v>254.8803726948228</v>
       </c>
       <c r="W15" t="n">
-        <v>133.8250684108777</v>
+        <v>254.8803726948228</v>
       </c>
       <c r="X15" t="n">
-        <v>69.46133793238711</v>
+        <v>254.8803726948228</v>
       </c>
       <c r="Y15" t="n">
-        <v>5.097607453896459</v>
+        <v>254.8803726948228</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>5.097607453896459</v>
+        <v>5.097607453896456</v>
       </c>
       <c r="C16" t="n">
-        <v>5.097607453896459</v>
+        <v>5.097607453896456</v>
       </c>
       <c r="D16" t="n">
-        <v>5.097607453896459</v>
+        <v>5.097607453896456</v>
       </c>
       <c r="E16" t="n">
-        <v>5.097607453896459</v>
+        <v>5.097607453896456</v>
       </c>
       <c r="F16" t="n">
-        <v>5.097607453896459</v>
+        <v>5.097607453896456</v>
       </c>
       <c r="G16" t="n">
-        <v>5.097607453896459</v>
+        <v>5.097607453896456</v>
       </c>
       <c r="H16" t="n">
-        <v>5.097607453896459</v>
+        <v>5.097607453896456</v>
       </c>
       <c r="I16" t="n">
-        <v>5.097607453896459</v>
+        <v>5.097607453896456</v>
       </c>
       <c r="J16" t="n">
-        <v>5.097607453896459</v>
+        <v>5.097607453896456</v>
       </c>
       <c r="K16" t="n">
-        <v>5.097607453896459</v>
+        <v>5.097607453896456</v>
       </c>
       <c r="L16" t="n">
-        <v>5.097607453896459</v>
+        <v>5.097607453896456</v>
       </c>
       <c r="M16" t="n">
-        <v>5.097607453896459</v>
+        <v>5.097607453896456</v>
       </c>
       <c r="N16" t="n">
-        <v>5.097607453896459</v>
+        <v>5.097607453896456</v>
       </c>
       <c r="O16" t="n">
-        <v>5.097607453896459</v>
+        <v>5.097607453896456</v>
       </c>
       <c r="P16" t="n">
-        <v>5.097607453896459</v>
+        <v>5.097607453896456</v>
       </c>
       <c r="Q16" t="n">
-        <v>5.097607453896459</v>
+        <v>5.097607453896456</v>
       </c>
       <c r="R16" t="n">
-        <v>5.097607453896459</v>
+        <v>5.097607453896456</v>
       </c>
       <c r="S16" t="n">
-        <v>5.097607453896459</v>
+        <v>5.097607453896456</v>
       </c>
       <c r="T16" t="n">
-        <v>5.097607453896459</v>
+        <v>5.097607453896456</v>
       </c>
       <c r="U16" t="n">
-        <v>5.097607453896459</v>
+        <v>5.097607453896456</v>
       </c>
       <c r="V16" t="n">
-        <v>5.097607453896459</v>
+        <v>5.097607453896456</v>
       </c>
       <c r="W16" t="n">
-        <v>5.097607453896459</v>
+        <v>5.097607453896456</v>
       </c>
       <c r="X16" t="n">
-        <v>5.097607453896459</v>
+        <v>5.097607453896456</v>
       </c>
       <c r="Y16" t="n">
-        <v>5.097607453896459</v>
+        <v>5.097607453896456</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>5.097607453896459</v>
+        <v>38.47055657650758</v>
       </c>
       <c r="C17" t="n">
-        <v>5.097607453896459</v>
+        <v>38.47055657650758</v>
       </c>
       <c r="D17" t="n">
-        <v>5.097607453896459</v>
+        <v>38.47055657650758</v>
       </c>
       <c r="E17" t="n">
-        <v>5.097607453896459</v>
+        <v>38.47055657650758</v>
       </c>
       <c r="F17" t="n">
-        <v>5.097607453896459</v>
+        <v>38.47055657650758</v>
       </c>
       <c r="G17" t="n">
-        <v>5.097607453896459</v>
+        <v>38.47055657650758</v>
       </c>
       <c r="H17" t="n">
-        <v>5.097607453896459</v>
+        <v>38.47055657650758</v>
       </c>
       <c r="I17" t="n">
-        <v>5.097607453896459</v>
+        <v>38.47055657650758</v>
       </c>
       <c r="J17" t="n">
-        <v>5.097607453896459</v>
+        <v>5.097607453896456</v>
       </c>
       <c r="K17" t="n">
-        <v>6.814072263517165</v>
+        <v>6.814072263517133</v>
       </c>
       <c r="L17" t="n">
-        <v>45.84526049799177</v>
+        <v>45.84526049799175</v>
       </c>
       <c r="M17" t="n">
-        <v>108.9281527399605</v>
+        <v>108.9281527399604</v>
       </c>
       <c r="N17" t="n">
-        <v>172.0110449819291</v>
+        <v>172.011044981929</v>
       </c>
       <c r="O17" t="n">
-        <v>235.0939372238978</v>
+        <v>235.0939372238977</v>
       </c>
       <c r="P17" t="n">
-        <v>254.4327254191698</v>
+        <v>254.4327254191696</v>
       </c>
       <c r="Q17" t="n">
-        <v>220.0993695926046</v>
+        <v>220.0993695926044</v>
       </c>
       <c r="R17" t="n">
-        <v>155.735639114114</v>
+        <v>155.7356391141138</v>
       </c>
       <c r="S17" t="n">
-        <v>91.3719086356233</v>
+        <v>91.37190863562319</v>
       </c>
       <c r="T17" t="n">
-        <v>27.00817815713265</v>
+        <v>38.47055657650758</v>
       </c>
       <c r="U17" t="n">
-        <v>5.097607453896459</v>
+        <v>38.47055657650758</v>
       </c>
       <c r="V17" t="n">
-        <v>5.097607453896459</v>
+        <v>38.47055657650758</v>
       </c>
       <c r="W17" t="n">
-        <v>5.097607453896459</v>
+        <v>38.47055657650758</v>
       </c>
       <c r="X17" t="n">
-        <v>5.097607453896459</v>
+        <v>38.47055657650758</v>
       </c>
       <c r="Y17" t="n">
-        <v>5.097607453896459</v>
+        <v>38.47055657650758</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>5.097607453896459</v>
+        <v>172.901693754639</v>
       </c>
       <c r="C18" t="n">
-        <v>5.097607453896459</v>
+        <v>172.901693754639</v>
       </c>
       <c r="D18" t="n">
-        <v>5.097607453896459</v>
+        <v>172.901693754639</v>
       </c>
       <c r="E18" t="n">
-        <v>5.097607453896459</v>
+        <v>172.901693754639</v>
       </c>
       <c r="F18" t="n">
-        <v>5.097607453896459</v>
+        <v>172.901693754639</v>
       </c>
       <c r="G18" t="n">
-        <v>5.097607453896459</v>
+        <v>172.901693754639</v>
       </c>
       <c r="H18" t="n">
-        <v>5.097607453896459</v>
+        <v>108.5379632761485</v>
       </c>
       <c r="I18" t="n">
-        <v>5.097607453896459</v>
+        <v>44.17423279765787</v>
       </c>
       <c r="J18" t="n">
-        <v>5.097607453896459</v>
+        <v>5.097607453896456</v>
       </c>
       <c r="K18" t="n">
-        <v>5.097607453896459</v>
+        <v>17.79334015026308</v>
       </c>
       <c r="L18" t="n">
-        <v>68.18049969586514</v>
+        <v>80.87623239223171</v>
       </c>
       <c r="M18" t="n">
-        <v>131.2633919378338</v>
+        <v>143.9591246342004</v>
       </c>
       <c r="N18" t="n">
-        <v>194.3462841798025</v>
+        <v>148.0442258611239</v>
       </c>
       <c r="O18" t="n">
-        <v>211.1271181030926</v>
+        <v>211.1271181030925</v>
       </c>
       <c r="P18" t="n">
-        <v>254.8803726948229</v>
+        <v>254.8803726948228</v>
       </c>
       <c r="Q18" t="n">
-        <v>233.7893570631285</v>
+        <v>237.2654242331296</v>
       </c>
       <c r="R18" t="n">
-        <v>169.4256265846379</v>
+        <v>172.901693754639</v>
       </c>
       <c r="S18" t="n">
-        <v>105.0618961061472</v>
+        <v>172.901693754639</v>
       </c>
       <c r="T18" t="n">
-        <v>40.69816562765658</v>
+        <v>172.901693754639</v>
       </c>
       <c r="U18" t="n">
-        <v>5.097607453896459</v>
+        <v>172.901693754639</v>
       </c>
       <c r="V18" t="n">
-        <v>5.097607453896459</v>
+        <v>172.901693754639</v>
       </c>
       <c r="W18" t="n">
-        <v>5.097607453896459</v>
+        <v>172.901693754639</v>
       </c>
       <c r="X18" t="n">
-        <v>5.097607453896459</v>
+        <v>172.901693754639</v>
       </c>
       <c r="Y18" t="n">
-        <v>5.097607453896459</v>
+        <v>172.901693754639</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>5.097607453896459</v>
+        <v>5.097607453896456</v>
       </c>
       <c r="C19" t="n">
-        <v>5.097607453896459</v>
+        <v>5.097607453896456</v>
       </c>
       <c r="D19" t="n">
-        <v>5.097607453896459</v>
+        <v>5.097607453896456</v>
       </c>
       <c r="E19" t="n">
-        <v>5.097607453896459</v>
+        <v>5.097607453896456</v>
       </c>
       <c r="F19" t="n">
-        <v>5.097607453896459</v>
+        <v>5.097607453896456</v>
       </c>
       <c r="G19" t="n">
-        <v>5.097607453896459</v>
+        <v>5.097607453896456</v>
       </c>
       <c r="H19" t="n">
-        <v>5.097607453896459</v>
+        <v>5.097607453896456</v>
       </c>
       <c r="I19" t="n">
-        <v>5.097607453896459</v>
+        <v>5.097607453896456</v>
       </c>
       <c r="J19" t="n">
-        <v>5.097607453896459</v>
+        <v>5.097607453896456</v>
       </c>
       <c r="K19" t="n">
-        <v>5.097607453896459</v>
+        <v>5.097607453896456</v>
       </c>
       <c r="L19" t="n">
-        <v>5.097607453896459</v>
+        <v>5.097607453896456</v>
       </c>
       <c r="M19" t="n">
-        <v>5.097607453896459</v>
+        <v>5.097607453896456</v>
       </c>
       <c r="N19" t="n">
-        <v>5.097607453896459</v>
+        <v>5.097607453896456</v>
       </c>
       <c r="O19" t="n">
-        <v>5.097607453896459</v>
+        <v>5.097607453896456</v>
       </c>
       <c r="P19" t="n">
-        <v>5.097607453896459</v>
+        <v>5.097607453896456</v>
       </c>
       <c r="Q19" t="n">
-        <v>5.097607453896459</v>
+        <v>5.097607453896456</v>
       </c>
       <c r="R19" t="n">
-        <v>5.097607453896459</v>
+        <v>5.097607453896456</v>
       </c>
       <c r="S19" t="n">
-        <v>5.097607453896459</v>
+        <v>5.097607453896456</v>
       </c>
       <c r="T19" t="n">
-        <v>5.097607453896459</v>
+        <v>5.097607453896456</v>
       </c>
       <c r="U19" t="n">
-        <v>5.097607453896459</v>
+        <v>5.097607453896456</v>
       </c>
       <c r="V19" t="n">
-        <v>5.097607453896459</v>
+        <v>5.097607453896456</v>
       </c>
       <c r="W19" t="n">
-        <v>5.097607453896459</v>
+        <v>5.097607453896456</v>
       </c>
       <c r="X19" t="n">
-        <v>5.097607453896459</v>
+        <v>5.097607453896456</v>
       </c>
       <c r="Y19" t="n">
-        <v>5.097607453896459</v>
+        <v>5.097607453896456</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5726,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>91.85496214765494</v>
+        <v>159.3165623757588</v>
       </c>
       <c r="C20" t="n">
-        <v>91.85496214765494</v>
+        <v>82.69259047514376</v>
       </c>
       <c r="D20" t="n">
-        <v>91.85496214765494</v>
+        <v>82.69259047514376</v>
       </c>
       <c r="E20" t="n">
-        <v>91.85496214765494</v>
+        <v>82.69259047514376</v>
       </c>
       <c r="F20" t="n">
-        <v>91.85496214765494</v>
+        <v>82.69259047514376</v>
       </c>
       <c r="G20" t="n">
-        <v>15.2309902470399</v>
+        <v>82.69259047514376</v>
       </c>
       <c r="H20" t="n">
-        <v>6.068618574528712</v>
+        <v>82.69259047514376</v>
       </c>
       <c r="I20" t="n">
         <v>6.068618574528712</v>
@@ -5753,10 +5753,10 @@
         <v>6.068618574528712</v>
       </c>
       <c r="K20" t="n">
-        <v>7.785083384149417</v>
+        <v>7.78508338414939</v>
       </c>
       <c r="L20" t="n">
-        <v>46.81627161862403</v>
+        <v>46.816271618624</v>
       </c>
       <c r="M20" t="n">
         <v>121.9154264784168</v>
@@ -5765,37 +5765,37 @@
         <v>197.0145813382096</v>
       </c>
       <c r="O20" t="n">
-        <v>260.0974735801783</v>
+        <v>260.0974735801782</v>
       </c>
       <c r="P20" t="n">
-        <v>279.4362617754503</v>
+        <v>279.4362617754502</v>
       </c>
       <c r="Q20" t="n">
-        <v>245.1029059488851</v>
+        <v>279.4362617754502</v>
       </c>
       <c r="R20" t="n">
-        <v>168.47893404827</v>
+        <v>279.4362617754502</v>
       </c>
       <c r="S20" t="n">
-        <v>168.47893404827</v>
+        <v>279.4362617754502</v>
       </c>
       <c r="T20" t="n">
-        <v>168.47893404827</v>
+        <v>279.4362617754502</v>
       </c>
       <c r="U20" t="n">
-        <v>168.47893404827</v>
+        <v>279.4362617754502</v>
       </c>
       <c r="V20" t="n">
-        <v>168.47893404827</v>
+        <v>279.4362617754502</v>
       </c>
       <c r="W20" t="n">
-        <v>168.47893404827</v>
+        <v>279.4362617754502</v>
       </c>
       <c r="X20" t="n">
-        <v>168.47893404827</v>
+        <v>202.8122898748352</v>
       </c>
       <c r="Y20" t="n">
-        <v>168.47893404827</v>
+        <v>202.8122898748352</v>
       </c>
     </row>
     <row r="21">
@@ -5805,19 +5805,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>303.4309287264356</v>
+        <v>6.068618574528712</v>
       </c>
       <c r="C21" t="n">
-        <v>303.4309287264356</v>
+        <v>6.068618574528712</v>
       </c>
       <c r="D21" t="n">
-        <v>235.9405342763739</v>
+        <v>6.068618574528712</v>
       </c>
       <c r="E21" t="n">
-        <v>159.3165623757588</v>
+        <v>6.068618574528712</v>
       </c>
       <c r="F21" t="n">
-        <v>82.69259047514376</v>
+        <v>6.068618574528712</v>
       </c>
       <c r="G21" t="n">
         <v>6.068618574528712</v>
@@ -5835,13 +5835,13 @@
         <v>6.068618574528712</v>
       </c>
       <c r="L21" t="n">
-        <v>69.46213909067465</v>
+        <v>69.46213909067463</v>
       </c>
       <c r="M21" t="n">
-        <v>109.4793644151197</v>
+        <v>144.5612939504674</v>
       </c>
       <c r="N21" t="n">
-        <v>184.5785192749125</v>
+        <v>219.6604488102602</v>
       </c>
       <c r="O21" t="n">
         <v>259.6776741347053</v>
@@ -5850,31 +5850,31 @@
         <v>303.4309287264356</v>
       </c>
       <c r="Q21" t="n">
-        <v>303.4309287264356</v>
+        <v>282.3399130947412</v>
       </c>
       <c r="R21" t="n">
-        <v>303.4309287264356</v>
+        <v>205.7159411941261</v>
       </c>
       <c r="S21" t="n">
-        <v>303.4309287264356</v>
+        <v>129.0919692935111</v>
       </c>
       <c r="T21" t="n">
-        <v>303.4309287264356</v>
+        <v>82.69259047514376</v>
       </c>
       <c r="U21" t="n">
-        <v>303.4309287264356</v>
+        <v>82.69259047514376</v>
       </c>
       <c r="V21" t="n">
-        <v>303.4309287264356</v>
+        <v>82.69259047514376</v>
       </c>
       <c r="W21" t="n">
-        <v>303.4309287264356</v>
+        <v>82.69259047514376</v>
       </c>
       <c r="X21" t="n">
-        <v>303.4309287264356</v>
+        <v>82.69259047514376</v>
       </c>
       <c r="Y21" t="n">
-        <v>303.4309287264356</v>
+        <v>6.068618574528712</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>303.4309287264356</v>
+        <v>6.068618574528712</v>
       </c>
       <c r="C22" t="n">
-        <v>303.4309287264356</v>
+        <v>6.068618574528712</v>
       </c>
       <c r="D22" t="n">
-        <v>303.4309287264356</v>
+        <v>6.068618574528712</v>
       </c>
       <c r="E22" t="n">
-        <v>303.4309287264356</v>
+        <v>6.068618574528712</v>
       </c>
       <c r="F22" t="n">
-        <v>303.4309287264356</v>
+        <v>6.068618574528712</v>
       </c>
       <c r="G22" t="n">
-        <v>303.4309287264356</v>
+        <v>6.068618574528712</v>
       </c>
       <c r="H22" t="n">
-        <v>303.4309287264356</v>
+        <v>6.068618574528712</v>
       </c>
       <c r="I22" t="n">
-        <v>303.4309287264356</v>
+        <v>6.068618574528712</v>
       </c>
       <c r="J22" t="n">
-        <v>303.4309287264356</v>
+        <v>6.068618574528712</v>
       </c>
       <c r="K22" t="n">
-        <v>303.4309287264356</v>
+        <v>6.068618574528712</v>
       </c>
       <c r="L22" t="n">
-        <v>303.4309287264356</v>
+        <v>6.068618574528712</v>
       </c>
       <c r="M22" t="n">
-        <v>303.4309287264356</v>
+        <v>6.068618574528712</v>
       </c>
       <c r="N22" t="n">
-        <v>303.4309287264356</v>
+        <v>6.068618574528712</v>
       </c>
       <c r="O22" t="n">
-        <v>303.4309287264356</v>
+        <v>6.068618574528712</v>
       </c>
       <c r="P22" t="n">
-        <v>303.4309287264356</v>
+        <v>6.068618574528712</v>
       </c>
       <c r="Q22" t="n">
-        <v>303.4309287264356</v>
+        <v>6.068618574528712</v>
       </c>
       <c r="R22" t="n">
-        <v>303.4309287264356</v>
+        <v>6.068618574528712</v>
       </c>
       <c r="S22" t="n">
-        <v>303.4309287264356</v>
+        <v>6.068618574528712</v>
       </c>
       <c r="T22" t="n">
-        <v>303.4309287264356</v>
+        <v>6.068618574528712</v>
       </c>
       <c r="U22" t="n">
-        <v>303.4309287264356</v>
+        <v>6.068618574528712</v>
       </c>
       <c r="V22" t="n">
-        <v>303.4309287264356</v>
+        <v>6.068618574528712</v>
       </c>
       <c r="W22" t="n">
-        <v>303.4309287264356</v>
+        <v>6.068618574528712</v>
       </c>
       <c r="X22" t="n">
-        <v>303.4309287264356</v>
+        <v>6.068618574528712</v>
       </c>
       <c r="Y22" t="n">
-        <v>303.4309287264356</v>
+        <v>6.068618574528712</v>
       </c>
     </row>
     <row r="23">
@@ -5966,22 +5966,22 @@
         <v>159.3165623757588</v>
       </c>
       <c r="C23" t="n">
+        <v>159.3165623757588</v>
+      </c>
+      <c r="D23" t="n">
+        <v>159.3165623757588</v>
+      </c>
+      <c r="E23" t="n">
+        <v>159.3165623757588</v>
+      </c>
+      <c r="F23" t="n">
+        <v>159.3165623757588</v>
+      </c>
+      <c r="G23" t="n">
+        <v>159.3165623757588</v>
+      </c>
+      <c r="H23" t="n">
         <v>82.69259047514376</v>
-      </c>
-      <c r="D23" t="n">
-        <v>82.69259047514376</v>
-      </c>
-      <c r="E23" t="n">
-        <v>82.69259047514376</v>
-      </c>
-      <c r="F23" t="n">
-        <v>6.068618574528712</v>
-      </c>
-      <c r="G23" t="n">
-        <v>6.068618574528712</v>
-      </c>
-      <c r="H23" t="n">
-        <v>6.068618574528712</v>
       </c>
       <c r="I23" t="n">
         <v>6.068618574528712</v>
@@ -5990,10 +5990,10 @@
         <v>6.068618574528712</v>
       </c>
       <c r="K23" t="n">
-        <v>7.785083384149417</v>
+        <v>7.78508338414939</v>
       </c>
       <c r="L23" t="n">
-        <v>46.81627161862403</v>
+        <v>46.816271618624</v>
       </c>
       <c r="M23" t="n">
         <v>121.9154264784168</v>
@@ -6002,37 +6002,37 @@
         <v>197.0145813382096</v>
       </c>
       <c r="O23" t="n">
-        <v>260.0974735801783</v>
+        <v>260.0974735801782</v>
       </c>
       <c r="P23" t="n">
-        <v>279.4362617754503</v>
+        <v>279.4362617754502</v>
       </c>
       <c r="Q23" t="n">
-        <v>279.4362617754503</v>
+        <v>279.4362617754502</v>
       </c>
       <c r="R23" t="n">
-        <v>279.4362617754503</v>
+        <v>279.4362617754502</v>
       </c>
       <c r="S23" t="n">
-        <v>279.4362617754503</v>
+        <v>235.9405342763739</v>
       </c>
       <c r="T23" t="n">
-        <v>279.4362617754503</v>
+        <v>159.3165623757588</v>
       </c>
       <c r="U23" t="n">
-        <v>235.9405342763739</v>
+        <v>159.3165623757588</v>
       </c>
       <c r="V23" t="n">
-        <v>235.9405342763739</v>
+        <v>159.3165623757588</v>
       </c>
       <c r="W23" t="n">
-        <v>235.9405342763739</v>
+        <v>159.3165623757588</v>
       </c>
       <c r="X23" t="n">
-        <v>235.9405342763739</v>
+        <v>159.3165623757588</v>
       </c>
       <c r="Y23" t="n">
-        <v>235.9405342763739</v>
+        <v>159.3165623757588</v>
       </c>
     </row>
     <row r="24">
@@ -6042,37 +6042,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>82.69259047514376</v>
+        <v>73.55901302459041</v>
       </c>
       <c r="C24" t="n">
-        <v>6.068618574528712</v>
+        <v>73.55901302459041</v>
       </c>
       <c r="D24" t="n">
-        <v>6.068618574528712</v>
+        <v>73.55901302459041</v>
       </c>
       <c r="E24" t="n">
-        <v>6.068618574528712</v>
+        <v>73.55901302459041</v>
       </c>
       <c r="F24" t="n">
-        <v>6.068618574528712</v>
+        <v>73.55901302459041</v>
       </c>
       <c r="G24" t="n">
-        <v>6.068618574528712</v>
+        <v>73.55901302459041</v>
       </c>
       <c r="H24" t="n">
-        <v>6.068618574528712</v>
+        <v>73.55901302459041</v>
       </c>
       <c r="I24" t="n">
-        <v>6.068618574528712</v>
+        <v>45.14524391829012</v>
       </c>
       <c r="J24" t="n">
         <v>6.068618574528712</v>
       </c>
       <c r="K24" t="n">
-        <v>6.068618574528712</v>
+        <v>18.76435127089533</v>
       </c>
       <c r="L24" t="n">
-        <v>69.46213909067465</v>
+        <v>82.15787178704124</v>
       </c>
       <c r="M24" t="n">
         <v>109.4793644151197</v>
@@ -6087,31 +6087,31 @@
         <v>303.4309287264356</v>
       </c>
       <c r="Q24" t="n">
-        <v>282.3399130947412</v>
+        <v>303.4309287264356</v>
       </c>
       <c r="R24" t="n">
-        <v>282.3399130947412</v>
+        <v>303.4309287264356</v>
       </c>
       <c r="S24" t="n">
-        <v>282.3399130947412</v>
+        <v>226.8069568258205</v>
       </c>
       <c r="T24" t="n">
-        <v>282.3399130947412</v>
+        <v>150.1829849252055</v>
       </c>
       <c r="U24" t="n">
-        <v>235.9405342763739</v>
+        <v>150.1829849252055</v>
       </c>
       <c r="V24" t="n">
-        <v>159.3165623757588</v>
+        <v>150.1829849252055</v>
       </c>
       <c r="W24" t="n">
-        <v>82.69259047514376</v>
+        <v>73.55901302459041</v>
       </c>
       <c r="X24" t="n">
-        <v>82.69259047514376</v>
+        <v>73.55901302459041</v>
       </c>
       <c r="Y24" t="n">
-        <v>82.69259047514376</v>
+        <v>73.55901302459041</v>
       </c>
     </row>
     <row r="25">
@@ -6200,13 +6200,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>6.068618574528712</v>
+        <v>82.69259047514376</v>
       </c>
       <c r="C26" t="n">
-        <v>6.068618574528712</v>
+        <v>82.69259047514376</v>
       </c>
       <c r="D26" t="n">
-        <v>6.068618574528712</v>
+        <v>82.69259047514376</v>
       </c>
       <c r="E26" t="n">
         <v>6.068618574528712</v>
@@ -6227,10 +6227,10 @@
         <v>6.068618574528712</v>
       </c>
       <c r="K26" t="n">
-        <v>7.785083384149417</v>
+        <v>7.78508338414939</v>
       </c>
       <c r="L26" t="n">
-        <v>46.81627161862403</v>
+        <v>46.816271618624</v>
       </c>
       <c r="M26" t="n">
         <v>121.9154264784168</v>
@@ -6239,37 +6239,37 @@
         <v>197.0145813382096</v>
       </c>
       <c r="O26" t="n">
-        <v>260.0974735801783</v>
+        <v>260.0974735801782</v>
       </c>
       <c r="P26" t="n">
-        <v>279.4362617754503</v>
+        <v>279.4362617754502</v>
       </c>
       <c r="Q26" t="n">
-        <v>245.1029059488851</v>
+        <v>245.102905948885</v>
       </c>
       <c r="R26" t="n">
-        <v>168.47893404827</v>
+        <v>168.4789340482699</v>
       </c>
       <c r="S26" t="n">
-        <v>91.85496214765494</v>
+        <v>159.3165623757588</v>
       </c>
       <c r="T26" t="n">
-        <v>15.2309902470399</v>
+        <v>159.3165623757588</v>
       </c>
       <c r="U26" t="n">
-        <v>6.068618574528712</v>
+        <v>159.3165623757588</v>
       </c>
       <c r="V26" t="n">
-        <v>6.068618574528712</v>
+        <v>159.3165623757588</v>
       </c>
       <c r="W26" t="n">
-        <v>6.068618574528712</v>
+        <v>159.3165623757588</v>
       </c>
       <c r="X26" t="n">
-        <v>6.068618574528712</v>
+        <v>159.3165623757588</v>
       </c>
       <c r="Y26" t="n">
-        <v>6.068618574528712</v>
+        <v>82.69259047514376</v>
       </c>
     </row>
     <row r="27">
@@ -6279,22 +6279,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>235.9405342763739</v>
+        <v>159.3165623757588</v>
       </c>
       <c r="C27" t="n">
-        <v>235.9405342763739</v>
+        <v>159.3165623757588</v>
       </c>
       <c r="D27" t="n">
-        <v>235.9405342763739</v>
+        <v>82.69259047514376</v>
       </c>
       <c r="E27" t="n">
-        <v>159.3165623757588</v>
+        <v>82.69259047514376</v>
       </c>
       <c r="F27" t="n">
         <v>82.69259047514376</v>
       </c>
       <c r="G27" t="n">
-        <v>6.068618574528712</v>
+        <v>82.69259047514376</v>
       </c>
       <c r="H27" t="n">
         <v>6.068618574528712</v>
@@ -6309,13 +6309,13 @@
         <v>6.068618574528712</v>
       </c>
       <c r="L27" t="n">
-        <v>69.46213909067465</v>
+        <v>69.46213909067463</v>
       </c>
       <c r="M27" t="n">
-        <v>144.5612939504675</v>
+        <v>144.5612939504674</v>
       </c>
       <c r="N27" t="n">
-        <v>184.5785192749125</v>
+        <v>219.6604488102602</v>
       </c>
       <c r="O27" t="n">
         <v>259.6776741347053</v>
@@ -6324,19 +6324,19 @@
         <v>303.4309287264356</v>
       </c>
       <c r="Q27" t="n">
-        <v>303.4309287264356</v>
+        <v>282.3399130947412</v>
       </c>
       <c r="R27" t="n">
-        <v>303.4309287264356</v>
+        <v>235.9405342763739</v>
       </c>
       <c r="S27" t="n">
-        <v>303.4309287264356</v>
+        <v>235.9405342763739</v>
       </c>
       <c r="T27" t="n">
-        <v>303.4309287264356</v>
+        <v>235.9405342763739</v>
       </c>
       <c r="U27" t="n">
-        <v>303.4309287264356</v>
+        <v>235.9405342763739</v>
       </c>
       <c r="V27" t="n">
         <v>235.9405342763739</v>
@@ -6345,10 +6345,10 @@
         <v>235.9405342763739</v>
       </c>
       <c r="X27" t="n">
-        <v>235.9405342763739</v>
+        <v>159.3165623757588</v>
       </c>
       <c r="Y27" t="n">
-        <v>235.9405342763739</v>
+        <v>159.3165623757588</v>
       </c>
     </row>
     <row r="28">
@@ -6464,10 +6464,10 @@
         <v>6.068618574528712</v>
       </c>
       <c r="K29" t="n">
-        <v>7.785083384149417</v>
+        <v>7.78508338414939</v>
       </c>
       <c r="L29" t="n">
-        <v>46.81627161862403</v>
+        <v>46.816271618624</v>
       </c>
       <c r="M29" t="n">
         <v>121.9154264784168</v>
@@ -6476,31 +6476,31 @@
         <v>197.0145813382096</v>
       </c>
       <c r="O29" t="n">
-        <v>260.0974735801783</v>
+        <v>260.0974735801782</v>
       </c>
       <c r="P29" t="n">
-        <v>279.4362617754503</v>
+        <v>279.4362617754502</v>
       </c>
       <c r="Q29" t="n">
-        <v>245.1029059488851</v>
+        <v>245.102905948885</v>
       </c>
       <c r="R29" t="n">
-        <v>235.9405342763739</v>
+        <v>168.4789340482699</v>
       </c>
       <c r="S29" t="n">
-        <v>235.9405342763739</v>
+        <v>168.4789340482699</v>
       </c>
       <c r="T29" t="n">
-        <v>235.9405342763739</v>
+        <v>168.4789340482699</v>
       </c>
       <c r="U29" t="n">
-        <v>235.9405342763739</v>
+        <v>168.4789340482699</v>
       </c>
       <c r="V29" t="n">
-        <v>159.3165623757588</v>
+        <v>168.4789340482699</v>
       </c>
       <c r="W29" t="n">
-        <v>159.3165623757588</v>
+        <v>91.85496214765489</v>
       </c>
       <c r="X29" t="n">
         <v>82.69259047514376</v>
@@ -6516,10 +6516,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>150.1829849252055</v>
+        <v>6.068618574528712</v>
       </c>
       <c r="C30" t="n">
-        <v>82.69259047514376</v>
+        <v>6.068618574528712</v>
       </c>
       <c r="D30" t="n">
         <v>6.068618574528712</v>
@@ -6543,16 +6543,16 @@
         <v>6.068618574528712</v>
       </c>
       <c r="K30" t="n">
-        <v>6.068618574528712</v>
+        <v>18.76435127089533</v>
       </c>
       <c r="L30" t="n">
-        <v>69.46213909067465</v>
+        <v>82.15787178704124</v>
       </c>
       <c r="M30" t="n">
-        <v>109.4793644151197</v>
+        <v>157.257026646834</v>
       </c>
       <c r="N30" t="n">
-        <v>184.5785192749125</v>
+        <v>232.3561815066269</v>
       </c>
       <c r="O30" t="n">
         <v>259.6776741347053</v>
@@ -6564,19 +6564,19 @@
         <v>303.4309287264356</v>
       </c>
       <c r="R30" t="n">
-        <v>303.4309287264356</v>
+        <v>226.8069568258205</v>
       </c>
       <c r="S30" t="n">
-        <v>303.4309287264356</v>
+        <v>226.8069568258205</v>
       </c>
       <c r="T30" t="n">
-        <v>303.4309287264356</v>
+        <v>226.8069568258205</v>
       </c>
       <c r="U30" t="n">
-        <v>303.4309287264356</v>
+        <v>150.1829849252055</v>
       </c>
       <c r="V30" t="n">
-        <v>226.8069568258205</v>
+        <v>150.1829849252055</v>
       </c>
       <c r="W30" t="n">
         <v>150.1829849252055</v>
@@ -6585,7 +6585,7 @@
         <v>150.1829849252055</v>
       </c>
       <c r="Y30" t="n">
-        <v>150.1829849252055</v>
+        <v>73.55901302459041</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>6.068618574528712</v>
+        <v>303.4309287264356</v>
       </c>
       <c r="C31" t="n">
-        <v>6.068618574528712</v>
+        <v>303.4309287264356</v>
       </c>
       <c r="D31" t="n">
-        <v>6.068618574528712</v>
+        <v>303.4309287264356</v>
       </c>
       <c r="E31" t="n">
-        <v>6.068618574528712</v>
+        <v>303.4309287264356</v>
       </c>
       <c r="F31" t="n">
-        <v>6.068618574528712</v>
+        <v>303.4309287264356</v>
       </c>
       <c r="G31" t="n">
-        <v>6.068618574528712</v>
+        <v>303.4309287264356</v>
       </c>
       <c r="H31" t="n">
-        <v>6.068618574528712</v>
+        <v>303.4309287264356</v>
       </c>
       <c r="I31" t="n">
-        <v>6.068618574528712</v>
+        <v>303.4309287264356</v>
       </c>
       <c r="J31" t="n">
-        <v>6.068618574528712</v>
+        <v>303.4309287264356</v>
       </c>
       <c r="K31" t="n">
-        <v>6.068618574528712</v>
+        <v>303.4309287264356</v>
       </c>
       <c r="L31" t="n">
-        <v>6.068618574528712</v>
+        <v>303.4309287264356</v>
       </c>
       <c r="M31" t="n">
-        <v>6.068618574528712</v>
+        <v>303.4309287264356</v>
       </c>
       <c r="N31" t="n">
-        <v>6.068618574528712</v>
+        <v>303.4309287264356</v>
       </c>
       <c r="O31" t="n">
-        <v>6.068618574528712</v>
+        <v>303.4309287264356</v>
       </c>
       <c r="P31" t="n">
-        <v>6.068618574528712</v>
+        <v>303.4309287264356</v>
       </c>
       <c r="Q31" t="n">
-        <v>6.068618574528712</v>
+        <v>303.4309287264356</v>
       </c>
       <c r="R31" t="n">
-        <v>6.068618574528712</v>
+        <v>303.4309287264356</v>
       </c>
       <c r="S31" t="n">
-        <v>6.068618574528712</v>
+        <v>303.4309287264356</v>
       </c>
       <c r="T31" t="n">
-        <v>6.068618574528712</v>
+        <v>303.4309287264356</v>
       </c>
       <c r="U31" t="n">
-        <v>6.068618574528712</v>
+        <v>303.4309287264356</v>
       </c>
       <c r="V31" t="n">
-        <v>6.068618574528712</v>
+        <v>303.4309287264356</v>
       </c>
       <c r="W31" t="n">
-        <v>6.068618574528712</v>
+        <v>303.4309287264356</v>
       </c>
       <c r="X31" t="n">
-        <v>6.068618574528712</v>
+        <v>303.4309287264356</v>
       </c>
       <c r="Y31" t="n">
-        <v>6.068618574528712</v>
+        <v>303.4309287264356</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>203.1649673355435</v>
+        <v>171.6822786709424</v>
       </c>
       <c r="C32" t="n">
-        <v>203.1649673355435</v>
+        <v>89.11096341943106</v>
       </c>
       <c r="D32" t="n">
-        <v>203.1649673355435</v>
+        <v>89.11096341943106</v>
       </c>
       <c r="E32" t="n">
-        <v>120.593652084032</v>
+        <v>89.11096341943106</v>
       </c>
       <c r="F32" t="n">
-        <v>120.593652084032</v>
+        <v>89.11096341943106</v>
       </c>
       <c r="G32" t="n">
-        <v>89.11096341943113</v>
+        <v>6.5396481679197</v>
       </c>
       <c r="H32" t="n">
-        <v>6.539648167919704</v>
+        <v>6.5396481679197</v>
       </c>
       <c r="I32" t="n">
-        <v>6.539648167919704</v>
+        <v>6.5396481679197</v>
       </c>
       <c r="J32" t="n">
-        <v>6.539648167919704</v>
+        <v>6.5396481679197</v>
       </c>
       <c r="K32" t="n">
-        <v>8.256112977540411</v>
+        <v>8.256112977540377</v>
       </c>
       <c r="L32" t="n">
-        <v>47.28730121201502</v>
+        <v>47.28730121201499</v>
       </c>
       <c r="M32" t="n">
         <v>122.3864560718078</v>
       </c>
       <c r="N32" t="n">
-        <v>203.3146021498142</v>
+        <v>203.3146021498141</v>
       </c>
       <c r="O32" t="n">
-        <v>266.3974943917829</v>
+        <v>266.3974943917827</v>
       </c>
       <c r="P32" t="n">
-        <v>285.7362825870549</v>
+        <v>285.7362825870547</v>
       </c>
       <c r="Q32" t="n">
-        <v>285.7362825870549</v>
+        <v>285.7362825870547</v>
       </c>
       <c r="R32" t="n">
-        <v>203.1649673355435</v>
+        <v>285.7362825870547</v>
       </c>
       <c r="S32" t="n">
-        <v>203.1649673355435</v>
+        <v>285.7362825870547</v>
       </c>
       <c r="T32" t="n">
-        <v>203.1649673355435</v>
+        <v>285.7362825870547</v>
       </c>
       <c r="U32" t="n">
-        <v>203.1649673355435</v>
+        <v>285.7362825870547</v>
       </c>
       <c r="V32" t="n">
-        <v>203.1649673355435</v>
+        <v>285.7362825870547</v>
       </c>
       <c r="W32" t="n">
-        <v>203.1649673355435</v>
+        <v>254.2535939224538</v>
       </c>
       <c r="X32" t="n">
-        <v>203.1649673355435</v>
+        <v>171.6822786709424</v>
       </c>
       <c r="Y32" t="n">
-        <v>203.1649673355435</v>
+        <v>171.6822786709424</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>157.1897463326217</v>
+        <v>161.8397778929623</v>
       </c>
       <c r="C33" t="n">
-        <v>157.1897463326217</v>
+        <v>161.8397778929623</v>
       </c>
       <c r="D33" t="n">
-        <v>157.1897463326217</v>
+        <v>89.11096341943106</v>
       </c>
       <c r="E33" t="n">
-        <v>157.1897463326217</v>
+        <v>6.5396481679197</v>
       </c>
       <c r="F33" t="n">
-        <v>157.1897463326217</v>
+        <v>6.5396481679197</v>
       </c>
       <c r="G33" t="n">
-        <v>74.61843108111032</v>
+        <v>6.5396481679197</v>
       </c>
       <c r="H33" t="n">
-        <v>74.61843108111032</v>
+        <v>6.5396481679197</v>
       </c>
       <c r="I33" t="n">
-        <v>6.539648167919704</v>
+        <v>6.5396481679197</v>
       </c>
       <c r="J33" t="n">
-        <v>6.539648167919704</v>
+        <v>6.5396481679197</v>
       </c>
       <c r="K33" t="n">
-        <v>6.539648167919704</v>
+        <v>19.23538086428632</v>
       </c>
       <c r="L33" t="n">
-        <v>69.93316868406565</v>
+        <v>82.62890138043224</v>
       </c>
       <c r="M33" t="n">
-        <v>150.861314762072</v>
+        <v>123.6974052103609</v>
       </c>
       <c r="N33" t="n">
-        <v>231.7894608400783</v>
+        <v>204.6255512883672</v>
       </c>
       <c r="O33" t="n">
-        <v>283.2291538042549</v>
+        <v>283.2291538042547</v>
       </c>
       <c r="P33" t="n">
-        <v>326.9824083959852</v>
+        <v>326.982408395985</v>
       </c>
       <c r="Q33" t="n">
-        <v>326.9824083959852</v>
+        <v>326.982408395985</v>
       </c>
       <c r="R33" t="n">
-        <v>326.9824083959852</v>
+        <v>326.982408395985</v>
       </c>
       <c r="S33" t="n">
-        <v>322.3323768356445</v>
+        <v>244.4110931444736</v>
       </c>
       <c r="T33" t="n">
-        <v>322.3323768356445</v>
+        <v>244.4110931444736</v>
       </c>
       <c r="U33" t="n">
-        <v>322.3323768356445</v>
+        <v>244.4110931444736</v>
       </c>
       <c r="V33" t="n">
-        <v>239.7610615841331</v>
+        <v>244.4110931444736</v>
       </c>
       <c r="W33" t="n">
-        <v>157.1897463326217</v>
+        <v>244.4110931444736</v>
       </c>
       <c r="X33" t="n">
-        <v>157.1897463326217</v>
+        <v>244.4110931444736</v>
       </c>
       <c r="Y33" t="n">
-        <v>157.1897463326217</v>
+        <v>244.4110931444736</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>6.539648167919704</v>
+        <v>6.5396481679197</v>
       </c>
       <c r="C34" t="n">
-        <v>6.539648167919704</v>
+        <v>6.5396481679197</v>
       </c>
       <c r="D34" t="n">
-        <v>6.539648167919704</v>
+        <v>6.5396481679197</v>
       </c>
       <c r="E34" t="n">
-        <v>6.539648167919704</v>
+        <v>6.5396481679197</v>
       </c>
       <c r="F34" t="n">
-        <v>6.539648167919704</v>
+        <v>6.5396481679197</v>
       </c>
       <c r="G34" t="n">
-        <v>6.539648167919704</v>
+        <v>6.5396481679197</v>
       </c>
       <c r="H34" t="n">
-        <v>6.539648167919704</v>
+        <v>6.5396481679197</v>
       </c>
       <c r="I34" t="n">
-        <v>6.539648167919704</v>
+        <v>6.5396481679197</v>
       </c>
       <c r="J34" t="n">
-        <v>6.539648167919704</v>
+        <v>6.5396481679197</v>
       </c>
       <c r="K34" t="n">
-        <v>6.539648167919704</v>
+        <v>6.5396481679197</v>
       </c>
       <c r="L34" t="n">
-        <v>6.539648167919704</v>
+        <v>6.5396481679197</v>
       </c>
       <c r="M34" t="n">
-        <v>6.539648167919704</v>
+        <v>6.5396481679197</v>
       </c>
       <c r="N34" t="n">
-        <v>6.539648167919704</v>
+        <v>6.5396481679197</v>
       </c>
       <c r="O34" t="n">
-        <v>6.539648167919704</v>
+        <v>6.5396481679197</v>
       </c>
       <c r="P34" t="n">
-        <v>6.539648167919704</v>
+        <v>6.5396481679197</v>
       </c>
       <c r="Q34" t="n">
-        <v>6.539648167919704</v>
+        <v>6.5396481679197</v>
       </c>
       <c r="R34" t="n">
-        <v>6.539648167919704</v>
+        <v>6.5396481679197</v>
       </c>
       <c r="S34" t="n">
-        <v>6.539648167919704</v>
+        <v>6.5396481679197</v>
       </c>
       <c r="T34" t="n">
-        <v>6.539648167919704</v>
+        <v>6.5396481679197</v>
       </c>
       <c r="U34" t="n">
-        <v>6.539648167919704</v>
+        <v>6.5396481679197</v>
       </c>
       <c r="V34" t="n">
-        <v>6.539648167919704</v>
+        <v>6.5396481679197</v>
       </c>
       <c r="W34" t="n">
-        <v>6.539648167919704</v>
+        <v>6.5396481679197</v>
       </c>
       <c r="X34" t="n">
-        <v>6.539648167919704</v>
+        <v>6.5396481679197</v>
       </c>
       <c r="Y34" t="n">
-        <v>6.539648167919704</v>
+        <v>6.5396481679197</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>61.34153398369787</v>
+        <v>61.34153398369759</v>
       </c>
       <c r="C35" t="n">
-        <v>61.34153398369787</v>
+        <v>5.097607453896473</v>
       </c>
       <c r="D35" t="n">
-        <v>61.34153398369787</v>
+        <v>5.097607453896473</v>
       </c>
       <c r="E35" t="n">
-        <v>61.34153398369787</v>
+        <v>5.097607453896473</v>
       </c>
       <c r="F35" t="n">
-        <v>5.09760745389646</v>
+        <v>5.097607453896473</v>
       </c>
       <c r="G35" t="n">
-        <v>5.09760745389646</v>
+        <v>5.097607453896473</v>
       </c>
       <c r="H35" t="n">
-        <v>5.09760745389646</v>
+        <v>5.097607453896473</v>
       </c>
       <c r="I35" t="n">
-        <v>5.09760745389646</v>
+        <v>5.097607453896473</v>
       </c>
       <c r="J35" t="n">
-        <v>5.09760745389646</v>
+        <v>5.097607453896473</v>
       </c>
       <c r="K35" t="n">
-        <v>6.814072263517166</v>
+        <v>6.814072263517151</v>
       </c>
       <c r="L35" t="n">
-        <v>45.84526049799178</v>
+        <v>45.84526049799176</v>
       </c>
       <c r="M35" t="n">
-        <v>108.9281527399605</v>
+        <v>108.9281527399606</v>
       </c>
       <c r="N35" t="n">
-        <v>172.0110449819292</v>
+        <v>172.0110449819295</v>
       </c>
       <c r="O35" t="n">
-        <v>235.0939372238979</v>
+        <v>235.0939372238981</v>
       </c>
       <c r="P35" t="n">
-        <v>254.4327254191699</v>
+        <v>254.4327254191701</v>
       </c>
       <c r="Q35" t="n">
-        <v>254.4327254191699</v>
+        <v>254.4327254191701</v>
       </c>
       <c r="R35" t="n">
-        <v>254.4327254191699</v>
+        <v>254.4327254191701</v>
       </c>
       <c r="S35" t="n">
-        <v>254.4327254191699</v>
+        <v>254.4327254191701</v>
       </c>
       <c r="T35" t="n">
-        <v>190.0689949406792</v>
+        <v>254.4327254191701</v>
       </c>
       <c r="U35" t="n">
-        <v>125.7052644621885</v>
+        <v>254.4327254191701</v>
       </c>
       <c r="V35" t="n">
-        <v>125.7052644621885</v>
+        <v>190.0689949406793</v>
       </c>
       <c r="W35" t="n">
-        <v>61.34153398369787</v>
+        <v>190.0689949406793</v>
       </c>
       <c r="X35" t="n">
-        <v>61.34153398369787</v>
+        <v>125.7052644621884</v>
       </c>
       <c r="Y35" t="n">
-        <v>61.34153398369787</v>
+        <v>61.34153398369759</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>126.1529117378417</v>
+        <v>5.097607453896473</v>
       </c>
       <c r="C36" t="n">
-        <v>61.78918125935101</v>
+        <v>5.097607453896473</v>
       </c>
       <c r="D36" t="n">
-        <v>5.09760745389646</v>
+        <v>5.097607453896473</v>
       </c>
       <c r="E36" t="n">
-        <v>5.09760745389646</v>
+        <v>5.097607453896473</v>
       </c>
       <c r="F36" t="n">
-        <v>5.09760745389646</v>
+        <v>5.097607453896473</v>
       </c>
       <c r="G36" t="n">
-        <v>5.09760745389646</v>
+        <v>5.097607453896473</v>
       </c>
       <c r="H36" t="n">
-        <v>5.09760745389646</v>
+        <v>5.097607453896473</v>
       </c>
       <c r="I36" t="n">
-        <v>5.09760745389646</v>
+        <v>5.097607453896473</v>
       </c>
       <c r="J36" t="n">
-        <v>5.09760745389646</v>
+        <v>5.097607453896473</v>
       </c>
       <c r="K36" t="n">
-        <v>5.09760745389646</v>
+        <v>17.7933401502631</v>
       </c>
       <c r="L36" t="n">
-        <v>68.18049969586515</v>
+        <v>80.87623239223196</v>
       </c>
       <c r="M36" t="n">
-        <v>131.2633919378338</v>
+        <v>143.9591246342008</v>
       </c>
       <c r="N36" t="n">
-        <v>194.3462841798025</v>
+        <v>207.0420168761697</v>
       </c>
       <c r="O36" t="n">
-        <v>211.1271181030927</v>
+        <v>211.1271181030934</v>
       </c>
       <c r="P36" t="n">
-        <v>254.880372694823</v>
+        <v>254.8803726948237</v>
       </c>
       <c r="Q36" t="n">
-        <v>254.880372694823</v>
+        <v>254.8803726948237</v>
       </c>
       <c r="R36" t="n">
-        <v>254.880372694823</v>
+        <v>254.8803726948237</v>
       </c>
       <c r="S36" t="n">
-        <v>254.880372694823</v>
+        <v>254.8803726948237</v>
       </c>
       <c r="T36" t="n">
-        <v>254.880372694823</v>
+        <v>254.8803726948237</v>
       </c>
       <c r="U36" t="n">
-        <v>254.880372694823</v>
+        <v>198.188798889369</v>
       </c>
       <c r="V36" t="n">
-        <v>254.880372694823</v>
+        <v>198.188798889369</v>
       </c>
       <c r="W36" t="n">
-        <v>254.880372694823</v>
+        <v>198.188798889369</v>
       </c>
       <c r="X36" t="n">
-        <v>254.880372694823</v>
+        <v>133.8250684108781</v>
       </c>
       <c r="Y36" t="n">
-        <v>190.5166422163323</v>
+        <v>69.46133793238731</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>5.09760745389646</v>
+        <v>5.097607453896473</v>
       </c>
       <c r="C37" t="n">
-        <v>5.09760745389646</v>
+        <v>5.097607453896473</v>
       </c>
       <c r="D37" t="n">
-        <v>5.09760745389646</v>
+        <v>5.097607453896473</v>
       </c>
       <c r="E37" t="n">
-        <v>5.09760745389646</v>
+        <v>5.097607453896473</v>
       </c>
       <c r="F37" t="n">
-        <v>5.09760745389646</v>
+        <v>5.097607453896473</v>
       </c>
       <c r="G37" t="n">
-        <v>5.09760745389646</v>
+        <v>5.097607453896473</v>
       </c>
       <c r="H37" t="n">
-        <v>5.09760745389646</v>
+        <v>5.097607453896473</v>
       </c>
       <c r="I37" t="n">
-        <v>5.09760745389646</v>
+        <v>5.097607453896473</v>
       </c>
       <c r="J37" t="n">
-        <v>5.09760745389646</v>
+        <v>5.097607453896473</v>
       </c>
       <c r="K37" t="n">
-        <v>5.09760745389646</v>
+        <v>5.097607453896473</v>
       </c>
       <c r="L37" t="n">
-        <v>5.09760745389646</v>
+        <v>5.097607453896473</v>
       </c>
       <c r="M37" t="n">
-        <v>5.09760745389646</v>
+        <v>5.097607453896473</v>
       </c>
       <c r="N37" t="n">
-        <v>5.09760745389646</v>
+        <v>5.097607453896473</v>
       </c>
       <c r="O37" t="n">
-        <v>5.09760745389646</v>
+        <v>5.097607453896473</v>
       </c>
       <c r="P37" t="n">
-        <v>5.09760745389646</v>
+        <v>5.097607453896473</v>
       </c>
       <c r="Q37" t="n">
-        <v>5.09760745389646</v>
+        <v>5.097607453896473</v>
       </c>
       <c r="R37" t="n">
-        <v>5.09760745389646</v>
+        <v>5.097607453896473</v>
       </c>
       <c r="S37" t="n">
-        <v>5.09760745389646</v>
+        <v>5.097607453896473</v>
       </c>
       <c r="T37" t="n">
-        <v>5.09760745389646</v>
+        <v>5.097607453896473</v>
       </c>
       <c r="U37" t="n">
-        <v>5.09760745389646</v>
+        <v>5.097607453896473</v>
       </c>
       <c r="V37" t="n">
-        <v>5.09760745389646</v>
+        <v>5.097607453896473</v>
       </c>
       <c r="W37" t="n">
-        <v>5.09760745389646</v>
+        <v>5.097607453896473</v>
       </c>
       <c r="X37" t="n">
-        <v>5.09760745389646</v>
+        <v>5.097607453896473</v>
       </c>
       <c r="Y37" t="n">
-        <v>5.09760745389646</v>
+        <v>5.097607453896473</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>5.09760745389646</v>
+        <v>69.46133793238705</v>
       </c>
       <c r="C38" t="n">
-        <v>5.09760745389646</v>
+        <v>69.46133793238705</v>
       </c>
       <c r="D38" t="n">
-        <v>5.09760745389646</v>
+        <v>5.097607453896456</v>
       </c>
       <c r="E38" t="n">
-        <v>5.09760745389646</v>
+        <v>5.097607453896456</v>
       </c>
       <c r="F38" t="n">
-        <v>5.09760745389646</v>
+        <v>5.097607453896456</v>
       </c>
       <c r="G38" t="n">
-        <v>5.09760745389646</v>
+        <v>5.097607453896456</v>
       </c>
       <c r="H38" t="n">
-        <v>5.09760745389646</v>
+        <v>5.097607453896456</v>
       </c>
       <c r="I38" t="n">
-        <v>5.09760745389646</v>
+        <v>5.097607453896456</v>
       </c>
       <c r="J38" t="n">
-        <v>5.09760745389646</v>
+        <v>5.097607453896456</v>
       </c>
       <c r="K38" t="n">
-        <v>6.814072263517166</v>
+        <v>6.814072263517133</v>
       </c>
       <c r="L38" t="n">
-        <v>45.84526049799178</v>
+        <v>45.84526049799175</v>
       </c>
       <c r="M38" t="n">
-        <v>108.9281527399605</v>
+        <v>108.9281527399604</v>
       </c>
       <c r="N38" t="n">
-        <v>172.0110449819292</v>
+        <v>172.011044981929</v>
       </c>
       <c r="O38" t="n">
-        <v>235.0939372238979</v>
+        <v>235.0939372238977</v>
       </c>
       <c r="P38" t="n">
-        <v>254.4327254191699</v>
+        <v>254.4327254191696</v>
       </c>
       <c r="Q38" t="n">
-        <v>254.4327254191699</v>
+        <v>254.4327254191696</v>
       </c>
       <c r="R38" t="n">
-        <v>254.4327254191699</v>
+        <v>254.4327254191696</v>
       </c>
       <c r="S38" t="n">
-        <v>254.4327254191699</v>
+        <v>254.4327254191696</v>
       </c>
       <c r="T38" t="n">
-        <v>254.4327254191699</v>
+        <v>254.4327254191696</v>
       </c>
       <c r="U38" t="n">
-        <v>254.4327254191699</v>
+        <v>198.1887988893682</v>
       </c>
       <c r="V38" t="n">
-        <v>190.0689949406792</v>
+        <v>198.1887988893682</v>
       </c>
       <c r="W38" t="n">
-        <v>190.0689949406792</v>
+        <v>198.1887988893682</v>
       </c>
       <c r="X38" t="n">
-        <v>125.7052644621885</v>
+        <v>198.1887988893682</v>
       </c>
       <c r="Y38" t="n">
-        <v>61.34153398369787</v>
+        <v>133.8250684108776</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>5.09760745389646</v>
+        <v>40.69816562765658</v>
       </c>
       <c r="C39" t="n">
-        <v>5.09760745389646</v>
+        <v>40.69816562765658</v>
       </c>
       <c r="D39" t="n">
-        <v>5.09760745389646</v>
+        <v>40.69816562765658</v>
       </c>
       <c r="E39" t="n">
-        <v>5.09760745389646</v>
+        <v>40.69816562765658</v>
       </c>
       <c r="F39" t="n">
-        <v>5.09760745389646</v>
+        <v>40.69816562765658</v>
       </c>
       <c r="G39" t="n">
-        <v>5.09760745389646</v>
+        <v>5.097607453896456</v>
       </c>
       <c r="H39" t="n">
-        <v>5.09760745389646</v>
+        <v>5.097607453896456</v>
       </c>
       <c r="I39" t="n">
-        <v>5.09760745389646</v>
+        <v>5.097607453896456</v>
       </c>
       <c r="J39" t="n">
-        <v>5.09760745389646</v>
+        <v>5.097607453896456</v>
       </c>
       <c r="K39" t="n">
-        <v>17.79334015026311</v>
+        <v>17.79334015026308</v>
       </c>
       <c r="L39" t="n">
-        <v>80.8762323922318</v>
+        <v>80.87623239223171</v>
       </c>
       <c r="M39" t="n">
-        <v>84.96133361915531</v>
+        <v>143.9591246342004</v>
       </c>
       <c r="N39" t="n">
-        <v>148.044225861124</v>
+        <v>148.0442258611239</v>
       </c>
       <c r="O39" t="n">
-        <v>211.1271181030927</v>
+        <v>211.1271181030925</v>
       </c>
       <c r="P39" t="n">
-        <v>254.880372694823</v>
+        <v>254.8803726948228</v>
       </c>
       <c r="Q39" t="n">
-        <v>233.7893570631286</v>
+        <v>233.7893570631284</v>
       </c>
       <c r="R39" t="n">
-        <v>198.1887988893685</v>
+        <v>233.7893570631284</v>
       </c>
       <c r="S39" t="n">
-        <v>198.1887988893685</v>
+        <v>169.4256265846378</v>
       </c>
       <c r="T39" t="n">
-        <v>198.1887988893685</v>
+        <v>169.4256265846378</v>
       </c>
       <c r="U39" t="n">
-        <v>198.1887988893685</v>
+        <v>105.0618961061472</v>
       </c>
       <c r="V39" t="n">
-        <v>198.1887988893685</v>
+        <v>105.0618961061472</v>
       </c>
       <c r="W39" t="n">
-        <v>133.8250684108778</v>
+        <v>105.0618961061472</v>
       </c>
       <c r="X39" t="n">
-        <v>69.46133793238712</v>
+        <v>105.0618961061472</v>
       </c>
       <c r="Y39" t="n">
-        <v>5.09760745389646</v>
+        <v>40.69816562765658</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>5.09760745389646</v>
+        <v>254.8803726948228</v>
       </c>
       <c r="C40" t="n">
-        <v>5.09760745389646</v>
+        <v>254.8803726948228</v>
       </c>
       <c r="D40" t="n">
-        <v>5.09760745389646</v>
+        <v>254.8803726948228</v>
       </c>
       <c r="E40" t="n">
-        <v>5.09760745389646</v>
+        <v>254.8803726948228</v>
       </c>
       <c r="F40" t="n">
-        <v>5.09760745389646</v>
+        <v>254.8803726948228</v>
       </c>
       <c r="G40" t="n">
-        <v>5.09760745389646</v>
+        <v>254.8803726948228</v>
       </c>
       <c r="H40" t="n">
-        <v>5.09760745389646</v>
+        <v>254.8803726948228</v>
       </c>
       <c r="I40" t="n">
-        <v>5.09760745389646</v>
+        <v>254.8803726948228</v>
       </c>
       <c r="J40" t="n">
-        <v>5.09760745389646</v>
+        <v>254.8803726948228</v>
       </c>
       <c r="K40" t="n">
-        <v>5.09760745389646</v>
+        <v>254.8803726948228</v>
       </c>
       <c r="L40" t="n">
-        <v>5.09760745389646</v>
+        <v>254.8803726948228</v>
       </c>
       <c r="M40" t="n">
-        <v>5.09760745389646</v>
+        <v>254.8803726948228</v>
       </c>
       <c r="N40" t="n">
-        <v>5.09760745389646</v>
+        <v>254.8803726948228</v>
       </c>
       <c r="O40" t="n">
-        <v>5.09760745389646</v>
+        <v>254.8803726948228</v>
       </c>
       <c r="P40" t="n">
-        <v>5.09760745389646</v>
+        <v>254.8803726948228</v>
       </c>
       <c r="Q40" t="n">
-        <v>5.09760745389646</v>
+        <v>254.8803726948228</v>
       </c>
       <c r="R40" t="n">
-        <v>5.09760745389646</v>
+        <v>254.8803726948228</v>
       </c>
       <c r="S40" t="n">
-        <v>5.09760745389646</v>
+        <v>254.8803726948228</v>
       </c>
       <c r="T40" t="n">
-        <v>5.09760745389646</v>
+        <v>254.8803726948228</v>
       </c>
       <c r="U40" t="n">
-        <v>5.09760745389646</v>
+        <v>254.8803726948228</v>
       </c>
       <c r="V40" t="n">
-        <v>5.09760745389646</v>
+        <v>254.8803726948228</v>
       </c>
       <c r="W40" t="n">
-        <v>5.09760745389646</v>
+        <v>254.8803726948228</v>
       </c>
       <c r="X40" t="n">
-        <v>5.09760745389646</v>
+        <v>254.8803726948228</v>
       </c>
       <c r="Y40" t="n">
-        <v>5.09760745389646</v>
+        <v>254.8803726948228</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>190.0689949406792</v>
+        <v>61.34153398369784</v>
       </c>
       <c r="C41" t="n">
-        <v>125.7052644621885</v>
+        <v>61.34153398369784</v>
       </c>
       <c r="D41" t="n">
-        <v>125.7052644621885</v>
+        <v>61.34153398369784</v>
       </c>
       <c r="E41" t="n">
-        <v>125.7052644621885</v>
+        <v>61.34153398369784</v>
       </c>
       <c r="F41" t="n">
-        <v>69.46133793238712</v>
+        <v>61.34153398369784</v>
       </c>
       <c r="G41" t="n">
-        <v>5.09760745389646</v>
+        <v>61.34153398369784</v>
       </c>
       <c r="H41" t="n">
-        <v>5.09760745389646</v>
+        <v>5.097607453896456</v>
       </c>
       <c r="I41" t="n">
-        <v>5.09760745389646</v>
+        <v>5.097607453896456</v>
       </c>
       <c r="J41" t="n">
-        <v>5.09760745389646</v>
+        <v>5.097607453896456</v>
       </c>
       <c r="K41" t="n">
-        <v>6.814072263517166</v>
+        <v>6.814072263517133</v>
       </c>
       <c r="L41" t="n">
-        <v>45.84526049799178</v>
+        <v>45.84526049799175</v>
       </c>
       <c r="M41" t="n">
-        <v>108.9281527399605</v>
+        <v>108.9281527399604</v>
       </c>
       <c r="N41" t="n">
-        <v>172.0110449819292</v>
+        <v>172.011044981929</v>
       </c>
       <c r="O41" t="n">
-        <v>235.0939372238979</v>
+        <v>235.0939372238977</v>
       </c>
       <c r="P41" t="n">
-        <v>254.4327254191699</v>
+        <v>254.4327254191696</v>
       </c>
       <c r="Q41" t="n">
-        <v>254.4327254191699</v>
+        <v>254.4327254191696</v>
       </c>
       <c r="R41" t="n">
-        <v>254.4327254191699</v>
+        <v>254.4327254191696</v>
       </c>
       <c r="S41" t="n">
-        <v>254.4327254191699</v>
+        <v>254.4327254191696</v>
       </c>
       <c r="T41" t="n">
-        <v>254.4327254191699</v>
+        <v>254.4327254191696</v>
       </c>
       <c r="U41" t="n">
-        <v>254.4327254191699</v>
+        <v>190.068994940679</v>
       </c>
       <c r="V41" t="n">
-        <v>190.0689949406792</v>
+        <v>125.7052644621884</v>
       </c>
       <c r="W41" t="n">
-        <v>190.0689949406792</v>
+        <v>61.34153398369784</v>
       </c>
       <c r="X41" t="n">
-        <v>190.0689949406792</v>
+        <v>61.34153398369784</v>
       </c>
       <c r="Y41" t="n">
-        <v>190.0689949406792</v>
+        <v>61.34153398369784</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>133.8250684108778</v>
+        <v>5.097607453896456</v>
       </c>
       <c r="C42" t="n">
-        <v>69.46133793238712</v>
+        <v>5.097607453896456</v>
       </c>
       <c r="D42" t="n">
-        <v>69.46133793238712</v>
+        <v>5.097607453896456</v>
       </c>
       <c r="E42" t="n">
-        <v>5.09760745389646</v>
+        <v>5.097607453896456</v>
       </c>
       <c r="F42" t="n">
-        <v>5.09760745389646</v>
+        <v>5.097607453896456</v>
       </c>
       <c r="G42" t="n">
-        <v>5.09760745389646</v>
+        <v>5.097607453896456</v>
       </c>
       <c r="H42" t="n">
-        <v>5.09760745389646</v>
+        <v>5.097607453896456</v>
       </c>
       <c r="I42" t="n">
-        <v>5.09760745389646</v>
+        <v>5.097607453896456</v>
       </c>
       <c r="J42" t="n">
-        <v>5.09760745389646</v>
+        <v>5.097607453896456</v>
       </c>
       <c r="K42" t="n">
-        <v>5.09760745389646</v>
+        <v>17.79334015026308</v>
       </c>
       <c r="L42" t="n">
-        <v>68.18049969586515</v>
+        <v>80.87623239223171</v>
       </c>
       <c r="M42" t="n">
-        <v>84.96133361915531</v>
+        <v>143.9591246342004</v>
       </c>
       <c r="N42" t="n">
-        <v>148.044225861124</v>
+        <v>148.0442258611239</v>
       </c>
       <c r="O42" t="n">
-        <v>211.1271181030927</v>
+        <v>211.1271181030925</v>
       </c>
       <c r="P42" t="n">
-        <v>254.880372694823</v>
+        <v>254.8803726948228</v>
       </c>
       <c r="Q42" t="n">
-        <v>254.880372694823</v>
+        <v>254.8803726948228</v>
       </c>
       <c r="R42" t="n">
-        <v>254.880372694823</v>
+        <v>254.8803726948228</v>
       </c>
       <c r="S42" t="n">
-        <v>254.880372694823</v>
+        <v>254.8803726948228</v>
       </c>
       <c r="T42" t="n">
-        <v>254.880372694823</v>
+        <v>254.8803726948228</v>
       </c>
       <c r="U42" t="n">
-        <v>254.880372694823</v>
+        <v>198.1887988893682</v>
       </c>
       <c r="V42" t="n">
-        <v>198.1887988893685</v>
+        <v>133.8250684108776</v>
       </c>
       <c r="W42" t="n">
-        <v>133.8250684108778</v>
+        <v>69.46133793238705</v>
       </c>
       <c r="X42" t="n">
-        <v>133.8250684108778</v>
+        <v>5.097607453896456</v>
       </c>
       <c r="Y42" t="n">
-        <v>133.8250684108778</v>
+        <v>5.097607453896456</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>5.09760745389646</v>
+        <v>254.8803726948228</v>
       </c>
       <c r="C43" t="n">
-        <v>5.09760745389646</v>
+        <v>254.8803726948228</v>
       </c>
       <c r="D43" t="n">
-        <v>5.09760745389646</v>
+        <v>254.8803726948228</v>
       </c>
       <c r="E43" t="n">
-        <v>5.09760745389646</v>
+        <v>254.8803726948228</v>
       </c>
       <c r="F43" t="n">
-        <v>5.09760745389646</v>
+        <v>254.8803726948228</v>
       </c>
       <c r="G43" t="n">
-        <v>5.09760745389646</v>
+        <v>254.8803726948228</v>
       </c>
       <c r="H43" t="n">
-        <v>5.09760745389646</v>
+        <v>254.8803726948228</v>
       </c>
       <c r="I43" t="n">
-        <v>5.09760745389646</v>
+        <v>254.8803726948228</v>
       </c>
       <c r="J43" t="n">
-        <v>5.09760745389646</v>
+        <v>254.8803726948228</v>
       </c>
       <c r="K43" t="n">
-        <v>5.09760745389646</v>
+        <v>254.8803726948228</v>
       </c>
       <c r="L43" t="n">
-        <v>5.09760745389646</v>
+        <v>254.8803726948228</v>
       </c>
       <c r="M43" t="n">
-        <v>5.09760745389646</v>
+        <v>254.8803726948228</v>
       </c>
       <c r="N43" t="n">
-        <v>5.09760745389646</v>
+        <v>254.8803726948228</v>
       </c>
       <c r="O43" t="n">
-        <v>5.09760745389646</v>
+        <v>254.8803726948228</v>
       </c>
       <c r="P43" t="n">
-        <v>5.09760745389646</v>
+        <v>254.8803726948228</v>
       </c>
       <c r="Q43" t="n">
-        <v>5.09760745389646</v>
+        <v>254.8803726948228</v>
       </c>
       <c r="R43" t="n">
-        <v>5.09760745389646</v>
+        <v>254.8803726948228</v>
       </c>
       <c r="S43" t="n">
-        <v>5.09760745389646</v>
+        <v>254.8803726948228</v>
       </c>
       <c r="T43" t="n">
-        <v>5.09760745389646</v>
+        <v>254.8803726948228</v>
       </c>
       <c r="U43" t="n">
-        <v>5.09760745389646</v>
+        <v>254.8803726948228</v>
       </c>
       <c r="V43" t="n">
-        <v>5.09760745389646</v>
+        <v>254.8803726948228</v>
       </c>
       <c r="W43" t="n">
-        <v>5.09760745389646</v>
+        <v>254.8803726948228</v>
       </c>
       <c r="X43" t="n">
-        <v>5.09760745389646</v>
+        <v>254.8803726948228</v>
       </c>
       <c r="Y43" t="n">
-        <v>5.09760745389646</v>
+        <v>254.8803726948228</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>56.23008538963047</v>
+        <v>4.126596333264203</v>
       </c>
       <c r="C44" t="n">
-        <v>56.23008538963047</v>
+        <v>4.126596333264203</v>
       </c>
       <c r="D44" t="n">
-        <v>4.126596333264207</v>
+        <v>4.126596333264203</v>
       </c>
       <c r="E44" t="n">
-        <v>4.126596333264207</v>
+        <v>4.126596333264203</v>
       </c>
       <c r="F44" t="n">
-        <v>4.126596333264207</v>
+        <v>4.126596333264203</v>
       </c>
       <c r="G44" t="n">
-        <v>4.126596333264207</v>
+        <v>4.126596333264203</v>
       </c>
       <c r="H44" t="n">
-        <v>4.126596333264207</v>
+        <v>4.126596333264203</v>
       </c>
       <c r="I44" t="n">
-        <v>4.126596333264207</v>
+        <v>4.126596333264203</v>
       </c>
       <c r="J44" t="n">
-        <v>4.126596333264207</v>
+        <v>4.126596333264203</v>
       </c>
       <c r="K44" t="n">
-        <v>5.843061142884913</v>
+        <v>5.843061142884881</v>
       </c>
       <c r="L44" t="n">
-        <v>44.87424937735953</v>
+        <v>33.79113959550463</v>
       </c>
       <c r="M44" t="n">
-        <v>84.85776921964924</v>
+        <v>84.85776921964914</v>
       </c>
       <c r="N44" t="n">
-        <v>135.9243988437938</v>
+        <v>135.9243988437937</v>
       </c>
       <c r="O44" t="n">
-        <v>186.9910284679383</v>
+        <v>186.9910284679382</v>
       </c>
       <c r="P44" t="n">
-        <v>206.3298166632104</v>
+        <v>206.3298166632102</v>
       </c>
       <c r="Q44" t="n">
-        <v>206.3298166632104</v>
+        <v>206.3298166632102</v>
       </c>
       <c r="R44" t="n">
-        <v>206.3298166632104</v>
+        <v>154.2263276068439</v>
       </c>
       <c r="S44" t="n">
-        <v>206.3298166632104</v>
+        <v>154.2263276068439</v>
       </c>
       <c r="T44" t="n">
-        <v>206.3298166632104</v>
+        <v>102.1228385504777</v>
       </c>
       <c r="U44" t="n">
-        <v>160.437063502363</v>
+        <v>56.2300853896304</v>
       </c>
       <c r="V44" t="n">
-        <v>108.3335744459967</v>
+        <v>56.2300853896304</v>
       </c>
       <c r="W44" t="n">
-        <v>108.3335744459967</v>
+        <v>56.2300853896304</v>
       </c>
       <c r="X44" t="n">
-        <v>56.23008538963047</v>
+        <v>56.2300853896304</v>
       </c>
       <c r="Y44" t="n">
-        <v>56.23008538963047</v>
+        <v>4.126596333264203</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>81.03182291878345</v>
+        <v>28.92833386241713</v>
       </c>
       <c r="C45" t="n">
-        <v>56.23008538963047</v>
+        <v>28.92833386241713</v>
       </c>
       <c r="D45" t="n">
-        <v>4.126596333264207</v>
+        <v>28.92833386241713</v>
       </c>
       <c r="E45" t="n">
-        <v>4.126596333264207</v>
+        <v>28.92833386241713</v>
       </c>
       <c r="F45" t="n">
-        <v>4.126596333264207</v>
+        <v>28.92833386241713</v>
       </c>
       <c r="G45" t="n">
-        <v>4.126596333264207</v>
+        <v>28.92833386241713</v>
       </c>
       <c r="H45" t="n">
-        <v>4.126596333264207</v>
+        <v>4.126596333264203</v>
       </c>
       <c r="I45" t="n">
-        <v>4.126596333264207</v>
+        <v>4.126596333264203</v>
       </c>
       <c r="J45" t="n">
-        <v>4.126596333264207</v>
+        <v>4.126596333264203</v>
       </c>
       <c r="K45" t="n">
-        <v>4.126596333264207</v>
+        <v>16.82232902963083</v>
       </c>
       <c r="L45" t="n">
-        <v>55.19322595740877</v>
+        <v>16.82232902963083</v>
       </c>
       <c r="M45" t="n">
-        <v>60.44330282319094</v>
+        <v>60.44330282319086</v>
       </c>
       <c r="N45" t="n">
-        <v>111.5099324473355</v>
+        <v>111.5099324473354</v>
       </c>
       <c r="O45" t="n">
-        <v>162.5765620714801</v>
+        <v>162.5765620714799</v>
       </c>
       <c r="P45" t="n">
-        <v>206.3298166632104</v>
+        <v>206.3298166632102</v>
       </c>
       <c r="Q45" t="n">
-        <v>185.2388010315159</v>
+        <v>185.2388010315157</v>
       </c>
       <c r="R45" t="n">
-        <v>185.2388010315159</v>
+        <v>185.2388010315157</v>
       </c>
       <c r="S45" t="n">
-        <v>185.2388010315159</v>
+        <v>133.1353119751495</v>
       </c>
       <c r="T45" t="n">
-        <v>185.2388010315159</v>
+        <v>133.1353119751495</v>
       </c>
       <c r="U45" t="n">
-        <v>185.2388010315159</v>
+        <v>133.1353119751495</v>
       </c>
       <c r="V45" t="n">
-        <v>185.2388010315159</v>
+        <v>81.03182291878333</v>
       </c>
       <c r="W45" t="n">
-        <v>133.1353119751497</v>
+        <v>28.92833386241713</v>
       </c>
       <c r="X45" t="n">
-        <v>133.1353119751497</v>
+        <v>28.92833386241713</v>
       </c>
       <c r="Y45" t="n">
-        <v>81.03182291878345</v>
+        <v>28.92833386241713</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>4.126596333264207</v>
+        <v>4.126596333264203</v>
       </c>
       <c r="C46" t="n">
-        <v>4.126596333264207</v>
+        <v>4.126596333264203</v>
       </c>
       <c r="D46" t="n">
-        <v>4.126596333264207</v>
+        <v>4.126596333264203</v>
       </c>
       <c r="E46" t="n">
-        <v>4.126596333264207</v>
+        <v>4.126596333264203</v>
       </c>
       <c r="F46" t="n">
-        <v>4.126596333264207</v>
+        <v>4.126596333264203</v>
       </c>
       <c r="G46" t="n">
-        <v>4.126596333264207</v>
+        <v>4.126596333264203</v>
       </c>
       <c r="H46" t="n">
-        <v>4.126596333264207</v>
+        <v>4.126596333264203</v>
       </c>
       <c r="I46" t="n">
-        <v>4.126596333264207</v>
+        <v>4.126596333264203</v>
       </c>
       <c r="J46" t="n">
-        <v>4.126596333264207</v>
+        <v>4.126596333264203</v>
       </c>
       <c r="K46" t="n">
-        <v>4.126596333264207</v>
+        <v>4.126596333264203</v>
       </c>
       <c r="L46" t="n">
-        <v>4.126596333264207</v>
+        <v>4.126596333264203</v>
       </c>
       <c r="M46" t="n">
-        <v>4.126596333264207</v>
+        <v>4.126596333264203</v>
       </c>
       <c r="N46" t="n">
-        <v>4.126596333264207</v>
+        <v>4.126596333264203</v>
       </c>
       <c r="O46" t="n">
-        <v>4.126596333264207</v>
+        <v>4.126596333264203</v>
       </c>
       <c r="P46" t="n">
-        <v>4.126596333264207</v>
+        <v>4.126596333264203</v>
       </c>
       <c r="Q46" t="n">
-        <v>4.126596333264207</v>
+        <v>4.126596333264203</v>
       </c>
       <c r="R46" t="n">
-        <v>4.126596333264207</v>
+        <v>4.126596333264203</v>
       </c>
       <c r="S46" t="n">
-        <v>4.126596333264207</v>
+        <v>4.126596333264203</v>
       </c>
       <c r="T46" t="n">
-        <v>4.126596333264207</v>
+        <v>4.126596333264203</v>
       </c>
       <c r="U46" t="n">
-        <v>4.126596333264207</v>
+        <v>4.126596333264203</v>
       </c>
       <c r="V46" t="n">
-        <v>4.126596333264207</v>
+        <v>4.126596333264203</v>
       </c>
       <c r="W46" t="n">
-        <v>4.126596333264207</v>
+        <v>4.126596333264203</v>
       </c>
       <c r="X46" t="n">
-        <v>4.126596333264207</v>
+        <v>4.126596333264203</v>
       </c>
       <c r="Y46" t="n">
-        <v>4.126596333264207</v>
+        <v>4.126596333264203</v>
       </c>
     </row>
   </sheetData>
@@ -23267,16 +23267,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>384.233778108593</v>
+        <v>384.2337781085931</v>
       </c>
       <c r="G11" t="n">
-        <v>349.8387991019376</v>
+        <v>349.8387991019378</v>
       </c>
       <c r="H11" t="n">
         <v>257.8955538831179</v>
       </c>
       <c r="I11" t="n">
-        <v>79.52620280119973</v>
+        <v>79.52620280119982</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23300,7 +23300,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>33.99002226829958</v>
+        <v>33.99002226829961</v>
       </c>
       <c r="R11" t="n">
         <v>106.0437192889171</v>
@@ -23349,13 +23349,13 @@
         <v>127.6304134163077</v>
       </c>
       <c r="G12" t="n">
-        <v>72.69038452952594</v>
+        <v>72.690384529526</v>
       </c>
       <c r="H12" t="n">
-        <v>39.50415417299418</v>
+        <v>39.50415417299425</v>
       </c>
       <c r="I12" t="n">
-        <v>3.677901910352944</v>
+        <v>3.677901910353</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23379,7 +23379,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>20.88010547537745</v>
+        <v>20.88010547537746</v>
       </c>
       <c r="R12" t="n">
         <v>87.74921187860531</v>
@@ -23440,22 +23440,22 @@
         <v>71.69183535173775</v>
       </c>
       <c r="K13" t="n">
-        <v>38.13247763816123</v>
+        <v>38.13247763816125</v>
       </c>
       <c r="L13" t="n">
-        <v>18.58856635741611</v>
+        <v>18.58856635741613</v>
       </c>
       <c r="M13" t="n">
-        <v>16.30784195075627</v>
+        <v>16.30784195075628</v>
       </c>
       <c r="N13" t="n">
-        <v>7.983183064493346</v>
+        <v>7.98318306449336</v>
       </c>
       <c r="O13" t="n">
-        <v>27.89203330963981</v>
+        <v>27.89203330963983</v>
       </c>
       <c r="P13" t="n">
-        <v>43.12096929150243</v>
+        <v>43.12096929150245</v>
       </c>
       <c r="Q13" t="n">
         <v>86.00399462759151</v>
@@ -23504,19 +23504,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>384.2337781085931</v>
       </c>
       <c r="G14" t="n">
-        <v>413.5588922756434</v>
+        <v>349.8387991019378</v>
       </c>
       <c r="H14" t="n">
-        <v>321.6156470568237</v>
+        <v>257.8955538831179</v>
       </c>
       <c r="I14" t="n">
-        <v>143.2462959749055</v>
+        <v>79.52620280119982</v>
       </c>
       <c r="J14" t="n">
-        <v>33.03921963138498</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23537,19 +23537,19 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>33.99002226829961</v>
       </c>
       <c r="R14" t="n">
-        <v>42.32362611521135</v>
+        <v>106.0437192889171</v>
       </c>
       <c r="S14" t="n">
-        <v>105.5621030176245</v>
+        <v>169.2821961913302</v>
       </c>
       <c r="T14" t="n">
-        <v>151.7420738545511</v>
+        <v>215.4621670282568</v>
       </c>
       <c r="U14" t="n">
-        <v>229.5146802924734</v>
+        <v>251.2061452886772</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23583,19 +23583,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>127.6304134163077</v>
       </c>
       <c r="G15" t="n">
-        <v>136.4104777032317</v>
+        <v>72.690384529526</v>
       </c>
       <c r="H15" t="n">
-        <v>103.2242473466999</v>
+        <v>39.50415417299425</v>
       </c>
       <c r="I15" t="n">
-        <v>67.39799508405869</v>
+        <v>3.677901910353</v>
       </c>
       <c r="J15" t="n">
-        <v>38.68585909032379</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23616,7 +23616,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>20.88010547537745</v>
+        <v>20.88010547537746</v>
       </c>
       <c r="R15" t="n">
         <v>87.74921187860531</v>
@@ -23631,16 +23631,16 @@
         <v>225.8799979059762</v>
       </c>
       <c r="V15" t="n">
-        <v>176.6759290820253</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>187.9748899872139</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>142.0528920297717</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>141.9626026035986</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -23677,22 +23677,22 @@
         <v>71.69183535173775</v>
       </c>
       <c r="K16" t="n">
-        <v>38.13247763816123</v>
+        <v>38.13247763816125</v>
       </c>
       <c r="L16" t="n">
-        <v>18.58856635741611</v>
+        <v>18.58856635741613</v>
       </c>
       <c r="M16" t="n">
-        <v>16.30784195075627</v>
+        <v>16.30784195075628</v>
       </c>
       <c r="N16" t="n">
-        <v>7.983183064493346</v>
+        <v>7.98318306449336</v>
       </c>
       <c r="O16" t="n">
-        <v>27.89203330963981</v>
+        <v>27.89203330963983</v>
       </c>
       <c r="P16" t="n">
-        <v>43.12096929150243</v>
+        <v>43.12096929150245</v>
       </c>
       <c r="Q16" t="n">
         <v>86.00399462759151</v>
@@ -23753,7 +23753,7 @@
         <v>143.2462959749055</v>
       </c>
       <c r="J17" t="n">
-        <v>33.03921963138498</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23777,16 +23777,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>42.32362611521135</v>
+        <v>42.32362611521141</v>
       </c>
       <c r="S17" t="n">
         <v>105.5621030176245</v>
       </c>
       <c r="T17" t="n">
-        <v>151.7420738545511</v>
+        <v>163.0898284897324</v>
       </c>
       <c r="U17" t="n">
-        <v>229.5146802924733</v>
+        <v>251.2061452886772</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23826,13 +23826,13 @@
         <v>136.4104777032317</v>
       </c>
       <c r="H18" t="n">
-        <v>103.2242473466999</v>
+        <v>39.50415417299425</v>
       </c>
       <c r="I18" t="n">
-        <v>67.39799508405869</v>
+        <v>3.677901910353</v>
       </c>
       <c r="J18" t="n">
-        <v>38.68585909032379</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23853,19 +23853,19 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>3.441306498301262</v>
       </c>
       <c r="R18" t="n">
-        <v>24.02911870489957</v>
+        <v>24.02911870489962</v>
       </c>
       <c r="S18" t="n">
-        <v>90.63227918885677</v>
+        <v>154.3523723625625</v>
       </c>
       <c r="T18" t="n">
-        <v>132.6838317328675</v>
+        <v>196.4039249065732</v>
       </c>
       <c r="U18" t="n">
-        <v>190.6354453139537</v>
+        <v>225.8799979059762</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -23914,22 +23914,22 @@
         <v>71.69183535173775</v>
       </c>
       <c r="K19" t="n">
-        <v>38.13247763816123</v>
+        <v>38.13247763816125</v>
       </c>
       <c r="L19" t="n">
-        <v>18.58856635741611</v>
+        <v>18.58856635741613</v>
       </c>
       <c r="M19" t="n">
-        <v>16.30784195075627</v>
+        <v>16.30784195075628</v>
       </c>
       <c r="N19" t="n">
-        <v>7.983183064493346</v>
+        <v>7.98318306449336</v>
       </c>
       <c r="O19" t="n">
-        <v>27.89203330963981</v>
+        <v>27.89203330963983</v>
       </c>
       <c r="P19" t="n">
-        <v>43.12096929150243</v>
+        <v>43.12096929150245</v>
       </c>
       <c r="Q19" t="n">
         <v>86.00399462759151</v>
@@ -23966,10 +23966,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>306.8761094818717</v>
+        <v>339.673071439395</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>289.4151595893986</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -23981,16 +23981,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>337.7011600940345</v>
+        <v>413.5588922756434</v>
       </c>
       <c r="H20" t="n">
-        <v>312.5448991010376</v>
+        <v>321.6156470568237</v>
       </c>
       <c r="I20" t="n">
-        <v>143.2462959749055</v>
+        <v>67.38856379329661</v>
       </c>
       <c r="J20" t="n">
-        <v>33.03921963138498</v>
+        <v>33.03921963138501</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24011,10 +24011,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>33.99002226829961</v>
       </c>
       <c r="R20" t="n">
-        <v>30.18598710730819</v>
+        <v>106.0437192889171</v>
       </c>
       <c r="S20" t="n">
         <v>169.2821961913302</v>
@@ -24032,7 +24032,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>293.8733684968602</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24051,16 +24051,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>80.62957505907765</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>81.78734827379205</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>69.21148021177498</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>60.5527455216228</v>
+        <v>136.4104777032317</v>
       </c>
       <c r="H21" t="n">
         <v>103.2242473466999</v>
@@ -24090,16 +24090,16 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>20.88010547537745</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>87.74921187860531</v>
+        <v>11.89147969699641</v>
       </c>
       <c r="S21" t="n">
-        <v>154.3523723625625</v>
+        <v>78.49464018095361</v>
       </c>
       <c r="T21" t="n">
-        <v>196.4039249065732</v>
+        <v>150.4685398763896</v>
       </c>
       <c r="U21" t="n">
         <v>225.8799979059762</v>
@@ -24114,7 +24114,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>129.8249635956955</v>
       </c>
     </row>
     <row r="22">
@@ -24151,22 +24151,22 @@
         <v>71.69183535173775</v>
       </c>
       <c r="K22" t="n">
-        <v>38.13247763816123</v>
+        <v>38.13247763816125</v>
       </c>
       <c r="L22" t="n">
-        <v>18.58856635741611</v>
+        <v>18.58856635741613</v>
       </c>
       <c r="M22" t="n">
-        <v>16.30784195075627</v>
+        <v>16.30784195075628</v>
       </c>
       <c r="N22" t="n">
-        <v>7.983183064493346</v>
+        <v>7.98318306449336</v>
       </c>
       <c r="O22" t="n">
-        <v>27.89203330963981</v>
+        <v>27.89203330963983</v>
       </c>
       <c r="P22" t="n">
-        <v>43.12096929150243</v>
+        <v>43.12096929150245</v>
       </c>
       <c r="Q22" t="n">
         <v>86.00399462759151</v>
@@ -24203,10 +24203,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>306.8761094818717</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>289.4151595893986</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -24215,19 +24215,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>331.0183135601026</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>413.5588922756434</v>
       </c>
       <c r="H23" t="n">
-        <v>321.6156470568237</v>
+        <v>245.7579148752148</v>
       </c>
       <c r="I23" t="n">
-        <v>143.2462959749055</v>
+        <v>67.38856379329661</v>
       </c>
       <c r="J23" t="n">
-        <v>33.03921963138498</v>
+        <v>33.03921963138501</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24248,19 +24248,19 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>33.99002226829958</v>
+        <v>33.99002226829961</v>
       </c>
       <c r="R23" t="n">
         <v>106.0437192889171</v>
       </c>
       <c r="S23" t="n">
-        <v>169.2821961913302</v>
+        <v>126.2214259672446</v>
       </c>
       <c r="T23" t="n">
-        <v>215.4621670282568</v>
+        <v>139.6044348466479</v>
       </c>
       <c r="U23" t="n">
-        <v>208.1453750645915</v>
+        <v>251.2061452886772</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24285,7 +24285,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>96.85076680670684</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -24303,10 +24303,10 @@
         <v>103.2242473466999</v>
       </c>
       <c r="I24" t="n">
-        <v>67.39799508405869</v>
+        <v>39.26836366882141</v>
       </c>
       <c r="J24" t="n">
-        <v>38.68585909032379</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24327,22 +24327,22 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>20.88010547537746</v>
       </c>
       <c r="R24" t="n">
         <v>87.74921187860531</v>
       </c>
       <c r="S24" t="n">
-        <v>154.3523723625625</v>
+        <v>78.49464018095361</v>
       </c>
       <c r="T24" t="n">
-        <v>196.4039249065732</v>
+        <v>120.5461927249643</v>
       </c>
       <c r="U24" t="n">
-        <v>179.9446128757926</v>
+        <v>225.8799979059762</v>
       </c>
       <c r="V24" t="n">
-        <v>156.9428549678164</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>175.8372509793107</v>
@@ -24388,22 +24388,22 @@
         <v>71.69183535173775</v>
       </c>
       <c r="K25" t="n">
-        <v>38.13247763816123</v>
+        <v>38.13247763816125</v>
       </c>
       <c r="L25" t="n">
-        <v>18.58856635741611</v>
+        <v>18.58856635741613</v>
       </c>
       <c r="M25" t="n">
-        <v>16.30784195075627</v>
+        <v>16.30784195075628</v>
       </c>
       <c r="N25" t="n">
-        <v>7.983183064493346</v>
+        <v>7.98318306449336</v>
       </c>
       <c r="O25" t="n">
-        <v>27.89203330963981</v>
+        <v>27.89203330963983</v>
       </c>
       <c r="P25" t="n">
-        <v>43.12096929150243</v>
+        <v>43.12096929150245</v>
       </c>
       <c r="Q25" t="n">
         <v>86.00399462759151</v>
@@ -24449,7 +24449,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>306.0726378906529</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -24464,7 +24464,7 @@
         <v>143.2462959749055</v>
       </c>
       <c r="J26" t="n">
-        <v>33.03921963138498</v>
+        <v>33.03921963138501</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24488,16 +24488,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>30.18598710730819</v>
+        <v>30.18598710730821</v>
       </c>
       <c r="S26" t="n">
-        <v>93.42446400972131</v>
+        <v>160.2114482355442</v>
       </c>
       <c r="T26" t="n">
-        <v>139.6044348466479</v>
+        <v>215.4621670282568</v>
       </c>
       <c r="U26" t="n">
-        <v>242.1353973328911</v>
+        <v>251.2061452886772</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -24509,7 +24509,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>310.3802064744447</v>
       </c>
     </row>
     <row r="27">
@@ -24525,19 +24525,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>71.58733338302986</v>
       </c>
       <c r="E27" t="n">
-        <v>81.78734827379205</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>69.21148021177498</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>60.5527455216228</v>
+        <v>136.4104777032317</v>
       </c>
       <c r="H27" t="n">
-        <v>103.2242473466999</v>
+        <v>27.36651516509104</v>
       </c>
       <c r="I27" t="n">
         <v>67.39799508405869</v>
@@ -24564,10 +24564,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>20.88010547537745</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>87.74921187860531</v>
+        <v>41.81382684842166</v>
       </c>
       <c r="S27" t="n">
         <v>154.3523723625625</v>
@@ -24579,13 +24579,13 @@
         <v>225.8799979059762</v>
       </c>
       <c r="V27" t="n">
-        <v>165.9850966438642</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>129.9152530218686</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -24625,22 +24625,22 @@
         <v>71.69183535173775</v>
       </c>
       <c r="K28" t="n">
-        <v>38.13247763816123</v>
+        <v>38.13247763816125</v>
       </c>
       <c r="L28" t="n">
-        <v>18.58856635741611</v>
+        <v>18.58856635741613</v>
       </c>
       <c r="M28" t="n">
-        <v>16.30784195075627</v>
+        <v>16.30784195075628</v>
       </c>
       <c r="N28" t="n">
-        <v>7.983183064493346</v>
+        <v>7.98318306449336</v>
       </c>
       <c r="O28" t="n">
-        <v>27.89203330963981</v>
+        <v>27.89203330963983</v>
       </c>
       <c r="P28" t="n">
-        <v>43.12096929150243</v>
+        <v>43.12096929150245</v>
       </c>
       <c r="Q28" t="n">
         <v>86.00399462759151</v>
@@ -24701,7 +24701,7 @@
         <v>143.2462959749055</v>
       </c>
       <c r="J29" t="n">
-        <v>33.03921963138498</v>
+        <v>33.03921963138501</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24725,7 +24725,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>96.972971333131</v>
+        <v>30.18598710730821</v>
       </c>
       <c r="S29" t="n">
         <v>169.2821961913302</v>
@@ -24737,13 +24737,13 @@
         <v>251.2061452886772</v>
       </c>
       <c r="V29" t="n">
-        <v>251.894526288526</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>273.3832365358041</v>
       </c>
       <c r="X29" t="n">
-        <v>293.8733684968602</v>
+        <v>360.660352722683</v>
       </c>
       <c r="Y29" t="n">
         <v>310.3802064744447</v>
@@ -24756,13 +24756,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>99.71769314430627</v>
       </c>
       <c r="C30" t="n">
-        <v>105.8930084827547</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>71.58733338302986</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
@@ -24801,10 +24801,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>20.88010547537745</v>
+        <v>20.88010547537746</v>
       </c>
       <c r="R30" t="n">
-        <v>87.74921187860531</v>
+        <v>11.89147969699641</v>
       </c>
       <c r="S30" t="n">
         <v>154.3523723625625</v>
@@ -24813,19 +24813,19 @@
         <v>196.4039249065732</v>
       </c>
       <c r="U30" t="n">
-        <v>225.8799979059762</v>
+        <v>150.0222657243673</v>
       </c>
       <c r="V30" t="n">
-        <v>156.9428549678164</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>175.8372509793107</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>129.8249635956955</v>
       </c>
     </row>
     <row r="31">
@@ -24862,22 +24862,22 @@
         <v>71.69183535173775</v>
       </c>
       <c r="K31" t="n">
-        <v>38.13247763816123</v>
+        <v>38.13247763816125</v>
       </c>
       <c r="L31" t="n">
-        <v>18.58856635741611</v>
+        <v>18.58856635741613</v>
       </c>
       <c r="M31" t="n">
-        <v>16.30784195075627</v>
+        <v>16.30784195075628</v>
       </c>
       <c r="N31" t="n">
-        <v>7.983183064493346</v>
+        <v>7.98318306449336</v>
       </c>
       <c r="O31" t="n">
-        <v>27.89203330963981</v>
+        <v>27.89203330963983</v>
       </c>
       <c r="P31" t="n">
-        <v>43.12096929150243</v>
+        <v>43.12096929150245</v>
       </c>
       <c r="Q31" t="n">
         <v>86.00399462759151</v>
@@ -24917,28 +24917,28 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>283.5272896720113</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>300.1847679732655</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>382.3910304976885</v>
+        <v>331.8132901766472</v>
       </c>
       <c r="H32" t="n">
-        <v>239.8700449578274</v>
+        <v>321.6156470568237</v>
       </c>
       <c r="I32" t="n">
         <v>143.2462959749055</v>
       </c>
       <c r="J32" t="n">
-        <v>33.03921963138498</v>
+        <v>33.03921963138501</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24959,10 +24959,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>33.99002226829958</v>
+        <v>33.99002226829961</v>
       </c>
       <c r="R32" t="n">
-        <v>24.29811718992079</v>
+        <v>106.0437192889171</v>
       </c>
       <c r="S32" t="n">
         <v>169.2821961913302</v>
@@ -24977,10 +24977,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>318.0731069394581</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>287.9854985794728</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -24993,28 +24993,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>84.7875815508711</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>75.44353923584285</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>75.8994783564047</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>54.66487560423539</v>
+        <v>136.4104777032317</v>
       </c>
       <c r="H33" t="n">
         <v>103.2242473466999</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>67.39799508405869</v>
       </c>
       <c r="J33" t="n">
         <v>38.68585909032379</v>
@@ -25038,13 +25038,13 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>20.88010547537745</v>
+        <v>20.88010547537746</v>
       </c>
       <c r="R33" t="n">
         <v>87.74921187860531</v>
       </c>
       <c r="S33" t="n">
-        <v>149.7488411178252</v>
+        <v>72.60677026356626</v>
       </c>
       <c r="T33" t="n">
         <v>196.4039249065732</v>
@@ -25053,10 +25053,10 @@
         <v>225.8799979059762</v>
       </c>
       <c r="V33" t="n">
-        <v>151.054985050429</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>169.9493810619233</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
@@ -25099,22 +25099,22 @@
         <v>71.69183535173775</v>
       </c>
       <c r="K34" t="n">
-        <v>38.13247763816123</v>
+        <v>38.13247763816125</v>
       </c>
       <c r="L34" t="n">
-        <v>18.58856635741611</v>
+        <v>18.58856635741613</v>
       </c>
       <c r="M34" t="n">
-        <v>16.30784195075627</v>
+        <v>16.30784195075628</v>
       </c>
       <c r="N34" t="n">
-        <v>7.983183064493346</v>
+        <v>7.98318306449336</v>
       </c>
       <c r="O34" t="n">
-        <v>27.89203330963981</v>
+        <v>27.89203330963983</v>
       </c>
       <c r="P34" t="n">
-        <v>43.12096929150243</v>
+        <v>43.12096929150245</v>
       </c>
       <c r="Q34" t="n">
         <v>86.00399462759151</v>
@@ -25154,7 +25154,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>309.5914045065044</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -25163,7 +25163,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>351.194558477208</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>413.5588922756434</v>
@@ -25175,7 +25175,7 @@
         <v>143.2462959749055</v>
       </c>
       <c r="J35" t="n">
-        <v>33.03921963138498</v>
+        <v>33.03921963138501</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25196,7 +25196,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>33.99002226829958</v>
+        <v>33.99002226829961</v>
       </c>
       <c r="R35" t="n">
         <v>106.0437192889171</v>
@@ -25205,22 +25205,22 @@
         <v>169.2821961913302</v>
       </c>
       <c r="T35" t="n">
-        <v>151.7420738545511</v>
+        <v>215.4621670282568</v>
       </c>
       <c r="U35" t="n">
-        <v>187.4860521149714</v>
+        <v>251.2061452886772</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>264.032165296429</v>
       </c>
       <c r="W35" t="n">
-        <v>285.5208755437072</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>306.0110075047631</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>322.5178454823476</v>
       </c>
     </row>
     <row r="36">
@@ -25230,13 +25230,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>102.8130904761616</v>
+        <v>102.8130904761614</v>
       </c>
       <c r="C36" t="n">
-        <v>108.98840581461</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>91.32040749723875</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
@@ -25275,7 +25275,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>20.88010547537745</v>
+        <v>20.88010547537746</v>
       </c>
       <c r="R36" t="n">
         <v>87.74921187860531</v>
@@ -25287,7 +25287,7 @@
         <v>196.4039249065732</v>
       </c>
       <c r="U36" t="n">
-        <v>225.8799979059762</v>
+        <v>169.755339838576</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -25296,10 +25296,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>142.0528920297716</v>
       </c>
       <c r="Y36" t="n">
-        <v>141.9626026035986</v>
+        <v>141.9626026035984</v>
       </c>
     </row>
     <row r="37">
@@ -25336,22 +25336,22 @@
         <v>71.69183535173775</v>
       </c>
       <c r="K37" t="n">
-        <v>38.13247763816123</v>
+        <v>38.13247763816125</v>
       </c>
       <c r="L37" t="n">
-        <v>18.58856635741611</v>
+        <v>18.58856635741613</v>
       </c>
       <c r="M37" t="n">
-        <v>16.30784195075627</v>
+        <v>16.30784195075628</v>
       </c>
       <c r="N37" t="n">
-        <v>7.983183064493346</v>
+        <v>7.98318306449336</v>
       </c>
       <c r="O37" t="n">
-        <v>27.89203330963981</v>
+        <v>27.89203330963983</v>
       </c>
       <c r="P37" t="n">
-        <v>43.12096929150243</v>
+        <v>43.12096929150245</v>
       </c>
       <c r="Q37" t="n">
         <v>86.00399462759151</v>
@@ -25388,13 +25388,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>327.0523543989772</v>
+        <v>319.0137484897749</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>290.9629484469773</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -25412,7 +25412,7 @@
         <v>143.2462959749055</v>
       </c>
       <c r="J38" t="n">
-        <v>33.03921963138498</v>
+        <v>33.03921963138501</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25433,7 +25433,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>33.99002226829958</v>
+        <v>33.99002226829961</v>
       </c>
       <c r="R38" t="n">
         <v>106.0437192889171</v>
@@ -25445,16 +25445,16 @@
         <v>215.4621670282568</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2061452886772</v>
+        <v>195.5246580241738</v>
       </c>
       <c r="V38" t="n">
-        <v>264.0321652964292</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>306.0110075047633</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>322.5178454823479</v>
@@ -25482,7 +25482,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>136.4104777032317</v>
+        <v>101.1659251112092</v>
       </c>
       <c r="H39" t="n">
         <v>103.2242473466999</v>
@@ -25515,28 +25515,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>52.50465928658278</v>
+        <v>87.74921187860531</v>
       </c>
       <c r="S39" t="n">
-        <v>154.3523723625625</v>
+        <v>90.63227918885681</v>
       </c>
       <c r="T39" t="n">
         <v>196.4039249065732</v>
       </c>
       <c r="U39" t="n">
-        <v>225.8799979059762</v>
+        <v>162.1599047322705</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>187.9748899872139</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>142.0528920297717</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>141.9626026035986</v>
+        <v>141.9626026035987</v>
       </c>
     </row>
     <row r="40">
@@ -25573,22 +25573,22 @@
         <v>71.69183535173775</v>
       </c>
       <c r="K40" t="n">
-        <v>38.13247763816123</v>
+        <v>38.13247763816125</v>
       </c>
       <c r="L40" t="n">
-        <v>18.58856635741611</v>
+        <v>18.58856635741613</v>
       </c>
       <c r="M40" t="n">
-        <v>16.30784195075627</v>
+        <v>16.30784195075628</v>
       </c>
       <c r="N40" t="n">
-        <v>7.983183064493346</v>
+        <v>7.98318306449336</v>
       </c>
       <c r="O40" t="n">
-        <v>27.89203330963981</v>
+        <v>27.89203330963983</v>
       </c>
       <c r="P40" t="n">
-        <v>43.12096929150243</v>
+        <v>43.12096929150245</v>
       </c>
       <c r="Q40" t="n">
         <v>86.00399462759151</v>
@@ -25628,7 +25628,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>301.5527985973018</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -25637,19 +25637,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>351.194558477208</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>349.8387991019376</v>
+        <v>413.5588922756434</v>
       </c>
       <c r="H41" t="n">
-        <v>321.6156470568237</v>
+        <v>265.9341597923203</v>
       </c>
       <c r="I41" t="n">
         <v>143.2462959749055</v>
       </c>
       <c r="J41" t="n">
-        <v>33.03921963138498</v>
+        <v>33.03921963138501</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25670,7 +25670,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>33.99002226829958</v>
+        <v>33.99002226829961</v>
       </c>
       <c r="R41" t="n">
         <v>106.0437192889171</v>
@@ -25682,13 +25682,13 @@
         <v>215.4621670282568</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2061452886772</v>
+        <v>187.4860521149715</v>
       </c>
       <c r="V41" t="n">
         <v>264.0321652964292</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>285.5208755437073</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25707,13 +25707,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>108.98840581461</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>93.92498728169519</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
@@ -25749,7 +25749,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>20.88010547537745</v>
+        <v>20.88010547537746</v>
       </c>
       <c r="R42" t="n">
         <v>87.74921187860531</v>
@@ -25761,16 +25761,16 @@
         <v>196.4039249065732</v>
       </c>
       <c r="U42" t="n">
-        <v>225.8799979059762</v>
+        <v>169.7553398385762</v>
       </c>
       <c r="V42" t="n">
-        <v>176.6759290820253</v>
+        <v>169.0804939757196</v>
       </c>
       <c r="W42" t="n">
         <v>187.9748899872139</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>142.0528920297718</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -25810,22 +25810,22 @@
         <v>71.69183535173775</v>
       </c>
       <c r="K43" t="n">
-        <v>38.13247763816123</v>
+        <v>38.13247763816125</v>
       </c>
       <c r="L43" t="n">
-        <v>18.58856635741611</v>
+        <v>18.58856635741613</v>
       </c>
       <c r="M43" t="n">
-        <v>16.30784195075627</v>
+        <v>16.30784195075628</v>
       </c>
       <c r="N43" t="n">
-        <v>7.983183064493346</v>
+        <v>7.98318306449336</v>
       </c>
       <c r="O43" t="n">
-        <v>27.89203330963981</v>
+        <v>27.89203330963983</v>
       </c>
       <c r="P43" t="n">
-        <v>43.12096929150243</v>
+        <v>43.12096929150245</v>
       </c>
       <c r="Q43" t="n">
         <v>86.00399462759151</v>
@@ -25868,7 +25868,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>303.1005874548804</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -25886,7 +25886,7 @@
         <v>143.2462959749055</v>
       </c>
       <c r="J44" t="n">
-        <v>33.03921963138498</v>
+        <v>33.03921963138501</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25907,31 +25907,31 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>33.99002226829958</v>
+        <v>33.99002226829961</v>
       </c>
       <c r="R44" t="n">
-        <v>106.0437192889171</v>
+        <v>54.46126512311456</v>
       </c>
       <c r="S44" t="n">
         <v>169.2821961913302</v>
       </c>
       <c r="T44" t="n">
-        <v>215.4621670282568</v>
+        <v>163.8797128624543</v>
       </c>
       <c r="U44" t="n">
         <v>205.7723196594383</v>
       </c>
       <c r="V44" t="n">
-        <v>276.1698043043323</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>318.1486465126665</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>334.6554844902511</v>
       </c>
     </row>
     <row r="45">
@@ -25944,10 +25944,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>148.1547788344543</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>95.86261139883617</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
@@ -25959,7 +25959,7 @@
         <v>136.4104777032317</v>
       </c>
       <c r="H45" t="n">
-        <v>103.2242473466999</v>
+        <v>78.67052719283853</v>
       </c>
       <c r="I45" t="n">
         <v>67.39799508405869</v>
@@ -25992,7 +25992,7 @@
         <v>87.74921187860531</v>
       </c>
       <c r="S45" t="n">
-        <v>154.3523723625625</v>
+        <v>102.76991819676</v>
       </c>
       <c r="T45" t="n">
         <v>196.4039249065732</v>
@@ -26001,16 +26001,16 @@
         <v>225.8799979059762</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>181.2181329836227</v>
       </c>
       <c r="W45" t="n">
-        <v>200.112528995117</v>
+        <v>200.1125289951171</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>154.1002416115018</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26047,22 +26047,22 @@
         <v>71.69183535173775</v>
       </c>
       <c r="K46" t="n">
-        <v>38.13247763816123</v>
+        <v>38.13247763816125</v>
       </c>
       <c r="L46" t="n">
-        <v>18.58856635741611</v>
+        <v>18.58856635741613</v>
       </c>
       <c r="M46" t="n">
-        <v>16.30784195075627</v>
+        <v>16.30784195075628</v>
       </c>
       <c r="N46" t="n">
-        <v>7.983183064493346</v>
+        <v>7.98318306449336</v>
       </c>
       <c r="O46" t="n">
-        <v>27.89203330963981</v>
+        <v>27.89203330963983</v>
       </c>
       <c r="P46" t="n">
-        <v>43.12096929150243</v>
+        <v>43.12096929150245</v>
       </c>
       <c r="Q46" t="n">
         <v>86.00399462759151</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>351316.1831427905</v>
+        <v>351316.1831427903</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>351316.1831427906</v>
+        <v>351316.1831427905</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>356666.3880245888</v>
+        <v>356666.3880245889</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>356666.3880245886</v>
+        <v>356666.3880245888</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>358630.1256195796</v>
+        <v>358630.1256195795</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>351316.1831427905</v>
+        <v>351316.1831427903</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>351316.1831427903</v>
+        <v>351316.1831427906</v>
       </c>
     </row>
     <row r="15">
@@ -26314,16 +26314,16 @@
         <v>72612.82267388004</v>
       </c>
       <c r="C2" t="n">
-        <v>72635.81175366868</v>
+        <v>72635.81175366869</v>
       </c>
       <c r="D2" t="n">
         <v>72635.81175366874</v>
       </c>
       <c r="E2" t="n">
-        <v>95813.5044934882</v>
+        <v>95813.50449348823</v>
       </c>
       <c r="F2" t="n">
-        <v>95813.50449348825</v>
+        <v>95813.50449348823</v>
       </c>
       <c r="G2" t="n">
         <v>95813.50449348822</v>
@@ -26338,22 +26338,22 @@
         <v>97272.65127943322</v>
       </c>
       <c r="K2" t="n">
-        <v>97272.65127943324</v>
+        <v>97272.65127943321</v>
       </c>
       <c r="L2" t="n">
         <v>97808.21607806705</v>
       </c>
       <c r="M2" t="n">
-        <v>95813.50449348822</v>
+        <v>95813.50449348823</v>
       </c>
       <c r="N2" t="n">
+        <v>95813.50449348823</v>
+      </c>
+      <c r="O2" t="n">
         <v>95813.50449348825</v>
       </c>
-      <c r="O2" t="n">
-        <v>95813.50449348823</v>
-      </c>
       <c r="P2" t="n">
-        <v>93671.73660407413</v>
+        <v>93671.73660407412</v>
       </c>
     </row>
     <row r="3">
@@ -26393,10 +26393,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1490.166885261496</v>
+        <v>1490.166885261481</v>
       </c>
       <c r="M3" t="n">
-        <v>11387.27317304199</v>
+        <v>11387.27317304216</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26424,13 +26424,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>46.1179767215925</v>
+        <v>46.11797672159245</v>
       </c>
       <c r="F4" t="n">
-        <v>46.11797672159248</v>
+        <v>46.11797672159245</v>
       </c>
       <c r="G4" t="n">
-        <v>46.11797672159248</v>
+        <v>46.11797672159245</v>
       </c>
       <c r="H4" t="n">
         <v>52.07307022611243</v>
@@ -26445,19 +26445,19 @@
         <v>52.07307022611243</v>
       </c>
       <c r="L4" t="n">
-        <v>54.25882595974717</v>
+        <v>54.25882595974713</v>
       </c>
       <c r="M4" t="n">
-        <v>46.1179767215925</v>
+        <v>46.11797672159256</v>
       </c>
       <c r="N4" t="n">
-        <v>46.1179767215925</v>
+        <v>46.11797672159245</v>
       </c>
       <c r="O4" t="n">
-        <v>46.1179767215925</v>
+        <v>46.11797672159245</v>
       </c>
       <c r="P4" t="n">
-        <v>37.37695890947489</v>
+        <v>37.37695890947485</v>
       </c>
     </row>
     <row r="5">
@@ -26497,10 +26497,10 @@
         <v>14068.58688909496</v>
       </c>
       <c r="L5" t="n">
-        <v>14426.56938007212</v>
+        <v>14426.56938007211</v>
       </c>
       <c r="M5" t="n">
-        <v>13330.61843741445</v>
+        <v>13330.61843741446</v>
       </c>
       <c r="N5" t="n">
         <v>13330.61843741445</v>
@@ -26522,16 +26522,16 @@
         <v>-282438.2007662873</v>
       </c>
       <c r="C6" t="n">
-        <v>31769.90785826561</v>
+        <v>31769.90785826564</v>
       </c>
       <c r="D6" t="n">
         <v>31894.47438786495</v>
       </c>
       <c r="E6" t="n">
-        <v>-22924.96785440954</v>
+        <v>-22924.96785440947</v>
       </c>
       <c r="F6" t="n">
-        <v>82436.7680793522</v>
+        <v>82436.76807935219</v>
       </c>
       <c r="G6" t="n">
         <v>82436.76807935217</v>
@@ -26546,22 +26546,22 @@
         <v>83151.99132011215</v>
       </c>
       <c r="K6" t="n">
-        <v>83151.99132011217</v>
+        <v>83151.99132011214</v>
       </c>
       <c r="L6" t="n">
-        <v>81837.22098677368</v>
+        <v>81837.22098677371</v>
       </c>
       <c r="M6" t="n">
-        <v>71049.49490631018</v>
+        <v>71049.49490631002</v>
       </c>
       <c r="N6" t="n">
+        <v>82436.76807935219</v>
+      </c>
+      <c r="O6" t="n">
         <v>82436.7680793522</v>
       </c>
-      <c r="O6" t="n">
-        <v>82436.76807935219</v>
-      </c>
       <c r="P6" t="n">
-        <v>81041.70965943072</v>
+        <v>81041.70965943071</v>
       </c>
     </row>
   </sheetData>
@@ -26744,40 +26744,40 @@
         <v>326.3182277891643</v>
       </c>
       <c r="E3" t="n">
-        <v>433.7815033235387</v>
+        <v>433.7815033235386</v>
       </c>
       <c r="F3" t="n">
-        <v>433.7815033235387</v>
+        <v>433.7815033235386</v>
       </c>
       <c r="G3" t="n">
-        <v>433.7815033235387</v>
+        <v>433.7815033235386</v>
       </c>
       <c r="H3" t="n">
-        <v>433.7815033235387</v>
+        <v>433.7815033235386</v>
       </c>
       <c r="I3" t="n">
-        <v>433.7815033235387</v>
+        <v>433.7815033235386</v>
       </c>
       <c r="J3" t="n">
-        <v>433.7815033235387</v>
+        <v>433.7815033235386</v>
       </c>
       <c r="K3" t="n">
-        <v>433.7815033235387</v>
+        <v>433.7815033235386</v>
       </c>
       <c r="L3" t="n">
-        <v>433.7815033235387</v>
+        <v>433.7815033235386</v>
       </c>
       <c r="M3" t="n">
-        <v>433.7815033235387</v>
+        <v>433.7815033235386</v>
       </c>
       <c r="N3" t="n">
-        <v>433.7815033235387</v>
+        <v>433.7815033235386</v>
       </c>
       <c r="O3" t="n">
-        <v>433.7815033235387</v>
+        <v>433.7815033235386</v>
       </c>
       <c r="P3" t="n">
-        <v>433.7815033235387</v>
+        <v>433.7815033235386</v>
       </c>
     </row>
     <row r="4">
@@ -26796,13 +26796,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>63.72009317370575</v>
+        <v>63.72009317370569</v>
       </c>
       <c r="F4" t="n">
-        <v>63.72009317370573</v>
+        <v>63.72009317370569</v>
       </c>
       <c r="G4" t="n">
-        <v>63.72009317370573</v>
+        <v>63.72009317370569</v>
       </c>
       <c r="H4" t="n">
         <v>75.8577321816089</v>
@@ -26817,19 +26817,19 @@
         <v>75.8577321816089</v>
       </c>
       <c r="L4" t="n">
-        <v>81.7456020989963</v>
+        <v>81.74560209899624</v>
       </c>
       <c r="M4" t="n">
-        <v>63.72009317370575</v>
+        <v>63.72009317370592</v>
       </c>
       <c r="N4" t="n">
-        <v>63.72009317370575</v>
+        <v>63.72009317370569</v>
       </c>
       <c r="O4" t="n">
-        <v>63.72009317370575</v>
+        <v>63.72009317370569</v>
       </c>
       <c r="P4" t="n">
-        <v>51.58245416580259</v>
+        <v>51.58245416580254</v>
       </c>
     </row>
   </sheetData>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>63.72009317370564</v>
+        <v>63.72009317370569</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27039,10 +27039,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>5.887869917387405</v>
+        <v>5.887869917387349</v>
       </c>
       <c r="M4" t="n">
-        <v>45.69458424841491</v>
+        <v>45.69458424841561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>63.72009317370564</v>
+        <v>63.72009317370569</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31750,31 +31750,31 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.743845239491612</v>
+        <v>1.743845239491611</v>
       </c>
       <c r="H11" t="n">
         <v>17.85915505894347</v>
       </c>
       <c r="I11" t="n">
-        <v>67.22959359550042</v>
+        <v>67.2295935955004</v>
       </c>
       <c r="J11" t="n">
         <v>148.0066848953013</v>
       </c>
       <c r="K11" t="n">
-        <v>221.8236538829813</v>
+        <v>221.8236538829812</v>
       </c>
       <c r="L11" t="n">
         <v>275.1918576310727</v>
       </c>
       <c r="M11" t="n">
-        <v>294.0663264009785</v>
+        <v>294.0663264009784</v>
       </c>
       <c r="N11" t="n">
         <v>293.1331567702966</v>
       </c>
       <c r="O11" t="n">
-        <v>293.8183045953925</v>
+        <v>293.8183045953924</v>
       </c>
       <c r="P11" t="n">
         <v>250.7671252454433</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9330394599789323</v>
+        <v>0.9330394599789322</v>
       </c>
       <c r="H12" t="n">
-        <v>9.011196889796532</v>
+        <v>9.01119688979653</v>
       </c>
       <c r="I12" t="n">
         <v>32.12438491594131</v>
@@ -31841,19 +31841,19 @@
         <v>88.15176757634291</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>150.6654113949313</v>
       </c>
       <c r="L12" t="n">
-        <v>202.2744729535799</v>
+        <v>186.8759513138679</v>
       </c>
       <c r="M12" t="n">
-        <v>205.8541270957241</v>
+        <v>205.854127095724</v>
       </c>
       <c r="N12" t="n">
-        <v>195.0618052570391</v>
+        <v>195.061805257039</v>
       </c>
       <c r="O12" t="n">
-        <v>203.7417883990106</v>
+        <v>206.3163376181501</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31871,7 +31871,7 @@
         <v>3.760803788248414</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06138417499861399</v>
+        <v>0.06138417499861398</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,19 +31908,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.7822289404194959</v>
+        <v>0.7822289404194958</v>
       </c>
       <c r="H13" t="n">
-        <v>6.954726397547887</v>
+        <v>6.954726397547886</v>
       </c>
       <c r="I13" t="n">
-        <v>23.52375759006994</v>
+        <v>23.52375759006993</v>
       </c>
       <c r="J13" t="n">
-        <v>55.30358608765836</v>
+        <v>55.30358608765835</v>
       </c>
       <c r="K13" t="n">
-        <v>90.88078053237415</v>
+        <v>90.88078053237413</v>
       </c>
       <c r="L13" t="n">
         <v>116.2961099238222</v>
@@ -31935,13 +31935,13 @@
         <v>110.564505142203</v>
       </c>
       <c r="P13" t="n">
-        <v>94.60703475764518</v>
+        <v>94.60703475764517</v>
       </c>
       <c r="Q13" t="n">
         <v>65.50100700185433</v>
       </c>
       <c r="R13" t="n">
-        <v>35.17185763013478</v>
+        <v>35.17185763013477</v>
       </c>
       <c r="S13" t="n">
         <v>13.63211707985612</v>
@@ -31987,31 +31987,31 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.743845239491612</v>
+        <v>1.743845239491611</v>
       </c>
       <c r="H14" t="n">
         <v>17.85915505894347</v>
       </c>
       <c r="I14" t="n">
-        <v>67.22959359550042</v>
+        <v>67.2295935955004</v>
       </c>
       <c r="J14" t="n">
         <v>148.0066848953013</v>
       </c>
       <c r="K14" t="n">
-        <v>221.8236538829813</v>
+        <v>221.8236538829812</v>
       </c>
       <c r="L14" t="n">
         <v>275.1918576310727</v>
       </c>
       <c r="M14" t="n">
-        <v>294.0663264009785</v>
+        <v>294.0663264009784</v>
       </c>
       <c r="N14" t="n">
         <v>293.1331567702966</v>
       </c>
       <c r="O14" t="n">
-        <v>293.8183045953925</v>
+        <v>293.8183045953924</v>
       </c>
       <c r="P14" t="n">
         <v>250.7671252454433</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9330394599789323</v>
+        <v>0.9330394599789322</v>
       </c>
       <c r="H15" t="n">
-        <v>9.011196889796532</v>
+        <v>9.01119688979653</v>
       </c>
       <c r="I15" t="n">
         <v>32.12438491594131</v>
@@ -32078,22 +32078,22 @@
         <v>88.15176757634291</v>
       </c>
       <c r="K15" t="n">
-        <v>150.6654113949314</v>
+        <v>150.6654113949313</v>
       </c>
       <c r="L15" t="n">
         <v>202.2744729535799</v>
       </c>
       <c r="M15" t="n">
-        <v>146.2603987976986</v>
+        <v>205.854127095724</v>
       </c>
       <c r="N15" t="n">
-        <v>195.0618052570391</v>
+        <v>135.4680769590136</v>
       </c>
       <c r="O15" t="n">
-        <v>206.3163376181502</v>
+        <v>206.3163376181501</v>
       </c>
       <c r="P15" t="n">
-        <v>178.1696140726437</v>
+        <v>178.1696140726436</v>
       </c>
       <c r="Q15" t="n">
         <v>119.1016686106441</v>
@@ -32108,7 +32108,7 @@
         <v>3.760803788248414</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06138417499861399</v>
+        <v>0.06138417499861398</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,19 +32145,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7822289404194959</v>
+        <v>0.7822289404194958</v>
       </c>
       <c r="H16" t="n">
-        <v>6.954726397547887</v>
+        <v>6.954726397547886</v>
       </c>
       <c r="I16" t="n">
-        <v>23.52375759006994</v>
+        <v>23.52375759006993</v>
       </c>
       <c r="J16" t="n">
-        <v>55.30358608765836</v>
+        <v>55.30358608765835</v>
       </c>
       <c r="K16" t="n">
-        <v>90.88078053237415</v>
+        <v>90.88078053237413</v>
       </c>
       <c r="L16" t="n">
         <v>116.2961099238222</v>
@@ -32172,13 +32172,13 @@
         <v>110.564505142203</v>
       </c>
       <c r="P16" t="n">
-        <v>94.60703475764518</v>
+        <v>94.60703475764517</v>
       </c>
       <c r="Q16" t="n">
         <v>65.50100700185433</v>
       </c>
       <c r="R16" t="n">
-        <v>35.17185763013478</v>
+        <v>35.17185763013477</v>
       </c>
       <c r="S16" t="n">
         <v>13.63211707985612</v>
@@ -32224,31 +32224,31 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.743845239491612</v>
+        <v>1.743845239491611</v>
       </c>
       <c r="H17" t="n">
         <v>17.85915505894347</v>
       </c>
       <c r="I17" t="n">
-        <v>67.22959359550042</v>
+        <v>67.2295935955004</v>
       </c>
       <c r="J17" t="n">
         <v>148.0066848953013</v>
       </c>
       <c r="K17" t="n">
-        <v>221.8236538829813</v>
+        <v>221.8236538829812</v>
       </c>
       <c r="L17" t="n">
         <v>275.1918576310727</v>
       </c>
       <c r="M17" t="n">
-        <v>294.0663264009785</v>
+        <v>294.0663264009784</v>
       </c>
       <c r="N17" t="n">
         <v>293.1331567702966</v>
       </c>
       <c r="O17" t="n">
-        <v>293.8183045953925</v>
+        <v>293.8183045953924</v>
       </c>
       <c r="P17" t="n">
         <v>250.7671252454433</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9330394599789323</v>
+        <v>0.9330394599789322</v>
       </c>
       <c r="H18" t="n">
-        <v>9.011196889796532</v>
+        <v>9.01119688979653</v>
       </c>
       <c r="I18" t="n">
         <v>32.12438491594131</v>
@@ -32315,7 +32315,7 @@
         <v>88.15176757634291</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>150.6654113949313</v>
       </c>
       <c r="L18" t="n">
         <v>202.2744729535799</v>
@@ -32324,13 +32324,13 @@
         <v>205.854127095724</v>
       </c>
       <c r="N18" t="n">
-        <v>195.0618052570391</v>
+        <v>135.4680769590136</v>
       </c>
       <c r="O18" t="n">
-        <v>159.5465817406971</v>
+        <v>206.3163376181501</v>
       </c>
       <c r="P18" t="n">
-        <v>178.1696140726437</v>
+        <v>178.1696140726436</v>
       </c>
       <c r="Q18" t="n">
         <v>119.1016686106441</v>
@@ -32345,7 +32345,7 @@
         <v>3.760803788248414</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06138417499861399</v>
+        <v>0.06138417499861398</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,19 +32382,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.7822289404194959</v>
+        <v>0.7822289404194958</v>
       </c>
       <c r="H19" t="n">
-        <v>6.954726397547887</v>
+        <v>6.954726397547886</v>
       </c>
       <c r="I19" t="n">
-        <v>23.52375759006994</v>
+        <v>23.52375759006993</v>
       </c>
       <c r="J19" t="n">
-        <v>55.30358608765836</v>
+        <v>55.30358608765835</v>
       </c>
       <c r="K19" t="n">
-        <v>90.88078053237415</v>
+        <v>90.88078053237413</v>
       </c>
       <c r="L19" t="n">
         <v>116.2961099238222</v>
@@ -32409,13 +32409,13 @@
         <v>110.564505142203</v>
       </c>
       <c r="P19" t="n">
-        <v>94.60703475764518</v>
+        <v>94.60703475764517</v>
       </c>
       <c r="Q19" t="n">
         <v>65.50100700185433</v>
       </c>
       <c r="R19" t="n">
-        <v>35.17185763013478</v>
+        <v>35.17185763013477</v>
       </c>
       <c r="S19" t="n">
         <v>13.63211707985612</v>
@@ -32461,19 +32461,19 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.743845239491612</v>
+        <v>1.743845239491611</v>
       </c>
       <c r="H20" t="n">
         <v>17.85915505894347</v>
       </c>
       <c r="I20" t="n">
-        <v>67.22959359550042</v>
+        <v>67.2295935955004</v>
       </c>
       <c r="J20" t="n">
         <v>148.0066848953013</v>
       </c>
       <c r="K20" t="n">
-        <v>221.8236538829813</v>
+        <v>221.8236538829812</v>
       </c>
       <c r="L20" t="n">
         <v>275.1918576310727</v>
@@ -32485,7 +32485,7 @@
         <v>305.2707957781998</v>
       </c>
       <c r="O20" t="n">
-        <v>293.8183045953925</v>
+        <v>293.8183045953924</v>
       </c>
       <c r="P20" t="n">
         <v>250.7671252454433</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9330394599789323</v>
+        <v>0.9330394599789322</v>
       </c>
       <c r="H21" t="n">
-        <v>9.011196889796532</v>
+        <v>9.01119688979653</v>
       </c>
       <c r="I21" t="n">
         <v>32.12438491594131</v>
@@ -32558,16 +32558,16 @@
         <v>202.5882388870923</v>
       </c>
       <c r="M21" t="n">
-        <v>182.55547364368</v>
+        <v>217.9917661036272</v>
       </c>
       <c r="N21" t="n">
         <v>207.1994442649422</v>
       </c>
       <c r="O21" t="n">
-        <v>218.4539766260533</v>
+        <v>183.0176841661062</v>
       </c>
       <c r="P21" t="n">
-        <v>178.1696140726437</v>
+        <v>178.1696140726436</v>
       </c>
       <c r="Q21" t="n">
         <v>119.1016686106441</v>
@@ -32582,7 +32582,7 @@
         <v>3.760803788248414</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06138417499861399</v>
+        <v>0.06138417499861398</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,19 +32619,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.7822289404194959</v>
+        <v>0.7822289404194958</v>
       </c>
       <c r="H22" t="n">
-        <v>6.954726397547887</v>
+        <v>6.954726397547886</v>
       </c>
       <c r="I22" t="n">
-        <v>23.52375759006994</v>
+        <v>23.52375759006993</v>
       </c>
       <c r="J22" t="n">
-        <v>55.30358608765836</v>
+        <v>55.30358608765835</v>
       </c>
       <c r="K22" t="n">
-        <v>90.88078053237415</v>
+        <v>90.88078053237413</v>
       </c>
       <c r="L22" t="n">
         <v>116.2961099238222</v>
@@ -32646,13 +32646,13 @@
         <v>110.564505142203</v>
       </c>
       <c r="P22" t="n">
-        <v>94.60703475764518</v>
+        <v>94.60703475764517</v>
       </c>
       <c r="Q22" t="n">
         <v>65.50100700185433</v>
       </c>
       <c r="R22" t="n">
-        <v>35.17185763013478</v>
+        <v>35.17185763013477</v>
       </c>
       <c r="S22" t="n">
         <v>13.63211707985612</v>
@@ -32698,19 +32698,19 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.743845239491612</v>
+        <v>1.743845239491611</v>
       </c>
       <c r="H23" t="n">
         <v>17.85915505894347</v>
       </c>
       <c r="I23" t="n">
-        <v>67.22959359550042</v>
+        <v>67.2295935955004</v>
       </c>
       <c r="J23" t="n">
         <v>148.0066848953013</v>
       </c>
       <c r="K23" t="n">
-        <v>221.8236538829813</v>
+        <v>221.8236538829812</v>
       </c>
       <c r="L23" t="n">
         <v>275.1918576310727</v>
@@ -32722,7 +32722,7 @@
         <v>305.2707957781998</v>
       </c>
       <c r="O23" t="n">
-        <v>293.8183045953925</v>
+        <v>293.8183045953924</v>
       </c>
       <c r="P23" t="n">
         <v>250.7671252454433</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.9330394599789323</v>
+        <v>0.9330394599789322</v>
       </c>
       <c r="H24" t="n">
-        <v>9.011196889796532</v>
+        <v>9.01119688979653</v>
       </c>
       <c r="I24" t="n">
         <v>32.12438491594131</v>
@@ -32789,13 +32789,13 @@
         <v>88.15176757634291</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>150.6654113949313</v>
       </c>
       <c r="L24" t="n">
         <v>202.5882388870923</v>
       </c>
       <c r="M24" t="n">
-        <v>182.55547364368</v>
+        <v>169.7315012231077</v>
       </c>
       <c r="N24" t="n">
         <v>207.1994442649422</v>
@@ -32804,7 +32804,7 @@
         <v>218.4539766260533</v>
       </c>
       <c r="P24" t="n">
-        <v>178.1696140726437</v>
+        <v>178.1696140726436</v>
       </c>
       <c r="Q24" t="n">
         <v>119.1016686106441</v>
@@ -32819,7 +32819,7 @@
         <v>3.760803788248414</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06138417499861399</v>
+        <v>0.06138417499861398</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,19 +32856,19 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.7822289404194959</v>
+        <v>0.7822289404194958</v>
       </c>
       <c r="H25" t="n">
-        <v>6.954726397547887</v>
+        <v>6.954726397547886</v>
       </c>
       <c r="I25" t="n">
-        <v>23.52375759006994</v>
+        <v>23.52375759006993</v>
       </c>
       <c r="J25" t="n">
-        <v>55.30358608765836</v>
+        <v>55.30358608765835</v>
       </c>
       <c r="K25" t="n">
-        <v>90.88078053237415</v>
+        <v>90.88078053237413</v>
       </c>
       <c r="L25" t="n">
         <v>116.2961099238222</v>
@@ -32883,13 +32883,13 @@
         <v>110.564505142203</v>
       </c>
       <c r="P25" t="n">
-        <v>94.60703475764518</v>
+        <v>94.60703475764517</v>
       </c>
       <c r="Q25" t="n">
         <v>65.50100700185433</v>
       </c>
       <c r="R25" t="n">
-        <v>35.17185763013478</v>
+        <v>35.17185763013477</v>
       </c>
       <c r="S25" t="n">
         <v>13.63211707985612</v>
@@ -32935,19 +32935,19 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.743845239491612</v>
+        <v>1.743845239491611</v>
       </c>
       <c r="H26" t="n">
         <v>17.85915505894347</v>
       </c>
       <c r="I26" t="n">
-        <v>67.22959359550042</v>
+        <v>67.2295935955004</v>
       </c>
       <c r="J26" t="n">
         <v>148.0066848953013</v>
       </c>
       <c r="K26" t="n">
-        <v>221.8236538829813</v>
+        <v>221.8236538829812</v>
       </c>
       <c r="L26" t="n">
         <v>275.1918576310727</v>
@@ -32959,7 +32959,7 @@
         <v>305.2707957781998</v>
       </c>
       <c r="O26" t="n">
-        <v>293.8183045953925</v>
+        <v>293.8183045953924</v>
       </c>
       <c r="P26" t="n">
         <v>250.7671252454433</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.9330394599789323</v>
+        <v>0.9330394599789322</v>
       </c>
       <c r="H27" t="n">
-        <v>9.011196889796532</v>
+        <v>9.01119688979653</v>
       </c>
       <c r="I27" t="n">
         <v>32.12438491594131</v>
@@ -33035,13 +33035,13 @@
         <v>217.9917661036272</v>
       </c>
       <c r="N27" t="n">
-        <v>171.7631518049949</v>
+        <v>207.1994442649422</v>
       </c>
       <c r="O27" t="n">
-        <v>218.4539766260533</v>
+        <v>183.0176841661062</v>
       </c>
       <c r="P27" t="n">
-        <v>178.1696140726437</v>
+        <v>178.1696140726436</v>
       </c>
       <c r="Q27" t="n">
         <v>119.1016686106441</v>
@@ -33056,7 +33056,7 @@
         <v>3.760803788248414</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06138417499861399</v>
+        <v>0.06138417499861398</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,19 +33093,19 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.7822289404194959</v>
+        <v>0.7822289404194958</v>
       </c>
       <c r="H28" t="n">
-        <v>6.954726397547887</v>
+        <v>6.954726397547886</v>
       </c>
       <c r="I28" t="n">
-        <v>23.52375759006994</v>
+        <v>23.52375759006993</v>
       </c>
       <c r="J28" t="n">
-        <v>55.30358608765836</v>
+        <v>55.30358608765835</v>
       </c>
       <c r="K28" t="n">
-        <v>90.88078053237415</v>
+        <v>90.88078053237413</v>
       </c>
       <c r="L28" t="n">
         <v>116.2961099238222</v>
@@ -33120,13 +33120,13 @@
         <v>110.564505142203</v>
       </c>
       <c r="P28" t="n">
-        <v>94.60703475764518</v>
+        <v>94.60703475764517</v>
       </c>
       <c r="Q28" t="n">
         <v>65.50100700185433</v>
       </c>
       <c r="R28" t="n">
-        <v>35.17185763013478</v>
+        <v>35.17185763013477</v>
       </c>
       <c r="S28" t="n">
         <v>13.63211707985612</v>
@@ -33172,19 +33172,19 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.743845239491612</v>
+        <v>1.743845239491611</v>
       </c>
       <c r="H29" t="n">
         <v>17.85915505894347</v>
       </c>
       <c r="I29" t="n">
-        <v>67.22959359550042</v>
+        <v>67.2295935955004</v>
       </c>
       <c r="J29" t="n">
         <v>148.0066848953013</v>
       </c>
       <c r="K29" t="n">
-        <v>221.8236538829813</v>
+        <v>221.8236538829812</v>
       </c>
       <c r="L29" t="n">
         <v>275.1918576310727</v>
@@ -33196,7 +33196,7 @@
         <v>305.2707957781998</v>
       </c>
       <c r="O29" t="n">
-        <v>293.8183045953925</v>
+        <v>293.8183045953924</v>
       </c>
       <c r="P29" t="n">
         <v>250.7671252454433</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.9330394599789323</v>
+        <v>0.9330394599789322</v>
       </c>
       <c r="H30" t="n">
-        <v>9.011196889796532</v>
+        <v>9.01119688979653</v>
       </c>
       <c r="I30" t="n">
         <v>32.12438491594131</v>
@@ -33263,22 +33263,22 @@
         <v>88.15176757634291</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>150.6654113949313</v>
       </c>
       <c r="L30" t="n">
         <v>202.5882388870923</v>
       </c>
       <c r="M30" t="n">
-        <v>182.55547364368</v>
+        <v>217.9917661036272</v>
       </c>
       <c r="N30" t="n">
         <v>207.1994442649422</v>
       </c>
       <c r="O30" t="n">
-        <v>218.4539766260533</v>
+        <v>170.1937117455338</v>
       </c>
       <c r="P30" t="n">
-        <v>178.1696140726437</v>
+        <v>178.1696140726436</v>
       </c>
       <c r="Q30" t="n">
         <v>119.1016686106441</v>
@@ -33293,7 +33293,7 @@
         <v>3.760803788248414</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06138417499861399</v>
+        <v>0.06138417499861398</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,19 +33330,19 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.7822289404194959</v>
+        <v>0.7822289404194958</v>
       </c>
       <c r="H31" t="n">
-        <v>6.954726397547887</v>
+        <v>6.954726397547886</v>
       </c>
       <c r="I31" t="n">
-        <v>23.52375759006994</v>
+        <v>23.52375759006993</v>
       </c>
       <c r="J31" t="n">
-        <v>55.30358608765836</v>
+        <v>55.30358608765835</v>
       </c>
       <c r="K31" t="n">
-        <v>90.88078053237415</v>
+        <v>90.88078053237413</v>
       </c>
       <c r="L31" t="n">
         <v>116.2961099238222</v>
@@ -33357,13 +33357,13 @@
         <v>110.564505142203</v>
       </c>
       <c r="P31" t="n">
-        <v>94.60703475764518</v>
+        <v>94.60703475764517</v>
       </c>
       <c r="Q31" t="n">
         <v>65.50100700185433</v>
       </c>
       <c r="R31" t="n">
-        <v>35.17185763013478</v>
+        <v>35.17185763013477</v>
       </c>
       <c r="S31" t="n">
         <v>13.63211707985612</v>
@@ -33409,19 +33409,19 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.743845239491612</v>
+        <v>1.743845239491611</v>
       </c>
       <c r="H32" t="n">
         <v>17.85915505894347</v>
       </c>
       <c r="I32" t="n">
-        <v>67.22959359550042</v>
+        <v>67.2295935955004</v>
       </c>
       <c r="J32" t="n">
         <v>148.0066848953013</v>
       </c>
       <c r="K32" t="n">
-        <v>221.8236538829813</v>
+        <v>221.8236538829812</v>
       </c>
       <c r="L32" t="n">
         <v>275.1918576310727</v>
@@ -33433,7 +33433,7 @@
         <v>311.1586656955872</v>
       </c>
       <c r="O32" t="n">
-        <v>293.8183045953925</v>
+        <v>293.8183045953924</v>
       </c>
       <c r="P32" t="n">
         <v>250.7671252454433</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.9330394599789323</v>
+        <v>0.9330394599789322</v>
       </c>
       <c r="H33" t="n">
-        <v>9.011196889796532</v>
+        <v>9.01119688979653</v>
       </c>
       <c r="I33" t="n">
         <v>32.12438491594131</v>
@@ -33500,22 +33500,22 @@
         <v>88.15176757634291</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>150.6654113949313</v>
       </c>
       <c r="L33" t="n">
         <v>202.5882388870923</v>
       </c>
       <c r="M33" t="n">
-        <v>223.8796360210146</v>
+        <v>183.6173711239665</v>
       </c>
       <c r="N33" t="n">
-        <v>213.0873141823296</v>
+        <v>213.0873141823295</v>
       </c>
       <c r="O33" t="n">
-        <v>194.555530266845</v>
+        <v>221.9938227433207</v>
       </c>
       <c r="P33" t="n">
-        <v>178.1696140726437</v>
+        <v>178.1696140726436</v>
       </c>
       <c r="Q33" t="n">
         <v>119.1016686106441</v>
@@ -33530,7 +33530,7 @@
         <v>3.760803788248414</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06138417499861399</v>
+        <v>0.06138417499861398</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,19 +33567,19 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.7822289404194959</v>
+        <v>0.7822289404194958</v>
       </c>
       <c r="H34" t="n">
-        <v>6.954726397547887</v>
+        <v>6.954726397547886</v>
       </c>
       <c r="I34" t="n">
-        <v>23.52375759006994</v>
+        <v>23.52375759006993</v>
       </c>
       <c r="J34" t="n">
-        <v>55.30358608765836</v>
+        <v>55.30358608765835</v>
       </c>
       <c r="K34" t="n">
-        <v>90.88078053237415</v>
+        <v>90.88078053237413</v>
       </c>
       <c r="L34" t="n">
         <v>116.2961099238222</v>
@@ -33594,13 +33594,13 @@
         <v>110.564505142203</v>
       </c>
       <c r="P34" t="n">
-        <v>94.60703475764518</v>
+        <v>94.60703475764517</v>
       </c>
       <c r="Q34" t="n">
         <v>65.50100700185433</v>
       </c>
       <c r="R34" t="n">
-        <v>35.17185763013478</v>
+        <v>35.17185763013477</v>
       </c>
       <c r="S34" t="n">
         <v>13.63211707985612</v>
@@ -33646,31 +33646,31 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.743845239491612</v>
+        <v>1.743845239491611</v>
       </c>
       <c r="H35" t="n">
         <v>17.85915505894347</v>
       </c>
       <c r="I35" t="n">
-        <v>67.22959359550042</v>
+        <v>67.2295935955004</v>
       </c>
       <c r="J35" t="n">
         <v>148.0066848953013</v>
       </c>
       <c r="K35" t="n">
-        <v>221.8236538829813</v>
+        <v>221.8236538829812</v>
       </c>
       <c r="L35" t="n">
         <v>275.1918576310727</v>
       </c>
       <c r="M35" t="n">
-        <v>294.0663264009785</v>
+        <v>294.0663264009787</v>
       </c>
       <c r="N35" t="n">
-        <v>293.1331567702966</v>
+        <v>293.1331567702969</v>
       </c>
       <c r="O35" t="n">
-        <v>293.8183045953925</v>
+        <v>293.8183045953924</v>
       </c>
       <c r="P35" t="n">
         <v>250.7671252454433</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.9330394599789323</v>
+        <v>0.9330394599789322</v>
       </c>
       <c r="H36" t="n">
-        <v>9.011196889796532</v>
+        <v>9.01119688979653</v>
       </c>
       <c r="I36" t="n">
         <v>32.12438491594131</v>
@@ -33737,22 +33737,22 @@
         <v>88.15176757634291</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>150.6654113949313</v>
       </c>
       <c r="L36" t="n">
-        <v>202.2744729535799</v>
+        <v>202.2744729535801</v>
       </c>
       <c r="M36" t="n">
-        <v>205.8541270957241</v>
+        <v>205.8541270957242</v>
       </c>
       <c r="N36" t="n">
-        <v>195.0618052570391</v>
+        <v>195.0618052570392</v>
       </c>
       <c r="O36" t="n">
-        <v>159.5465817406971</v>
+        <v>146.722609320125</v>
       </c>
       <c r="P36" t="n">
-        <v>178.1696140726437</v>
+        <v>178.1696140726436</v>
       </c>
       <c r="Q36" t="n">
         <v>119.1016686106441</v>
@@ -33767,7 +33767,7 @@
         <v>3.760803788248414</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06138417499861399</v>
+        <v>0.06138417499861398</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,19 +33804,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.7822289404194959</v>
+        <v>0.7822289404194958</v>
       </c>
       <c r="H37" t="n">
-        <v>6.954726397547887</v>
+        <v>6.954726397547886</v>
       </c>
       <c r="I37" t="n">
-        <v>23.52375759006994</v>
+        <v>23.52375759006993</v>
       </c>
       <c r="J37" t="n">
-        <v>55.30358608765836</v>
+        <v>55.30358608765835</v>
       </c>
       <c r="K37" t="n">
-        <v>90.88078053237415</v>
+        <v>90.88078053237413</v>
       </c>
       <c r="L37" t="n">
         <v>116.2961099238222</v>
@@ -33831,13 +33831,13 @@
         <v>110.564505142203</v>
       </c>
       <c r="P37" t="n">
-        <v>94.60703475764518</v>
+        <v>94.60703475764517</v>
       </c>
       <c r="Q37" t="n">
         <v>65.50100700185433</v>
       </c>
       <c r="R37" t="n">
-        <v>35.17185763013478</v>
+        <v>35.17185763013477</v>
       </c>
       <c r="S37" t="n">
         <v>13.63211707985612</v>
@@ -33883,31 +33883,31 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.743845239491612</v>
+        <v>1.743845239491611</v>
       </c>
       <c r="H38" t="n">
         <v>17.85915505894347</v>
       </c>
       <c r="I38" t="n">
-        <v>67.22959359550042</v>
+        <v>67.2295935955004</v>
       </c>
       <c r="J38" t="n">
         <v>148.0066848953013</v>
       </c>
       <c r="K38" t="n">
-        <v>221.8236538829813</v>
+        <v>221.8236538829812</v>
       </c>
       <c r="L38" t="n">
         <v>275.1918576310727</v>
       </c>
       <c r="M38" t="n">
-        <v>294.0663264009785</v>
+        <v>294.0663264009784</v>
       </c>
       <c r="N38" t="n">
         <v>293.1331567702966</v>
       </c>
       <c r="O38" t="n">
-        <v>293.8183045953925</v>
+        <v>293.8183045953924</v>
       </c>
       <c r="P38" t="n">
         <v>250.7671252454433</v>
@@ -33962,10 +33962,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.9330394599789323</v>
+        <v>0.9330394599789322</v>
       </c>
       <c r="H39" t="n">
-        <v>9.011196889796532</v>
+        <v>9.01119688979653</v>
       </c>
       <c r="I39" t="n">
         <v>32.12438491594131</v>
@@ -33974,22 +33974,22 @@
         <v>88.15176757634291</v>
       </c>
       <c r="K39" t="n">
-        <v>150.6654113949314</v>
+        <v>150.6654113949313</v>
       </c>
       <c r="L39" t="n">
         <v>202.2744729535799</v>
       </c>
       <c r="M39" t="n">
-        <v>146.2603987976986</v>
+        <v>205.854127095724</v>
       </c>
       <c r="N39" t="n">
-        <v>195.0618052570391</v>
+        <v>135.4680769590136</v>
       </c>
       <c r="O39" t="n">
-        <v>206.3163376181502</v>
+        <v>206.3163376181501</v>
       </c>
       <c r="P39" t="n">
-        <v>178.1696140726437</v>
+        <v>178.1696140726436</v>
       </c>
       <c r="Q39" t="n">
         <v>119.1016686106441</v>
@@ -34004,7 +34004,7 @@
         <v>3.760803788248414</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06138417499861399</v>
+        <v>0.06138417499861398</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,19 +34041,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.7822289404194959</v>
+        <v>0.7822289404194958</v>
       </c>
       <c r="H40" t="n">
-        <v>6.954726397547887</v>
+        <v>6.954726397547886</v>
       </c>
       <c r="I40" t="n">
-        <v>23.52375759006994</v>
+        <v>23.52375759006993</v>
       </c>
       <c r="J40" t="n">
-        <v>55.30358608765836</v>
+        <v>55.30358608765835</v>
       </c>
       <c r="K40" t="n">
-        <v>90.88078053237415</v>
+        <v>90.88078053237413</v>
       </c>
       <c r="L40" t="n">
         <v>116.2961099238222</v>
@@ -34068,13 +34068,13 @@
         <v>110.564505142203</v>
       </c>
       <c r="P40" t="n">
-        <v>94.60703475764518</v>
+        <v>94.60703475764517</v>
       </c>
       <c r="Q40" t="n">
         <v>65.50100700185433</v>
       </c>
       <c r="R40" t="n">
-        <v>35.17185763013478</v>
+        <v>35.17185763013477</v>
       </c>
       <c r="S40" t="n">
         <v>13.63211707985612</v>
@@ -34120,31 +34120,31 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.743845239491612</v>
+        <v>1.743845239491611</v>
       </c>
       <c r="H41" t="n">
         <v>17.85915505894347</v>
       </c>
       <c r="I41" t="n">
-        <v>67.22959359550042</v>
+        <v>67.2295935955004</v>
       </c>
       <c r="J41" t="n">
         <v>148.0066848953013</v>
       </c>
       <c r="K41" t="n">
-        <v>221.8236538829813</v>
+        <v>221.8236538829812</v>
       </c>
       <c r="L41" t="n">
         <v>275.1918576310727</v>
       </c>
       <c r="M41" t="n">
-        <v>294.0663264009785</v>
+        <v>294.0663264009784</v>
       </c>
       <c r="N41" t="n">
         <v>293.1331567702966</v>
       </c>
       <c r="O41" t="n">
-        <v>293.8183045953925</v>
+        <v>293.8183045953924</v>
       </c>
       <c r="P41" t="n">
         <v>250.7671252454433</v>
@@ -34199,10 +34199,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.9330394599789323</v>
+        <v>0.9330394599789322</v>
       </c>
       <c r="H42" t="n">
-        <v>9.011196889796532</v>
+        <v>9.01119688979653</v>
       </c>
       <c r="I42" t="n">
         <v>32.12438491594131</v>
@@ -34211,22 +34211,22 @@
         <v>88.15176757634291</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>150.6654113949313</v>
       </c>
       <c r="L42" t="n">
         <v>202.2744729535799</v>
       </c>
       <c r="M42" t="n">
-        <v>159.084371218271</v>
+        <v>205.854127095724</v>
       </c>
       <c r="N42" t="n">
-        <v>195.0618052570391</v>
+        <v>135.4680769590136</v>
       </c>
       <c r="O42" t="n">
-        <v>206.3163376181502</v>
+        <v>206.3163376181501</v>
       </c>
       <c r="P42" t="n">
-        <v>178.1696140726437</v>
+        <v>178.1696140726436</v>
       </c>
       <c r="Q42" t="n">
         <v>119.1016686106441</v>
@@ -34241,7 +34241,7 @@
         <v>3.760803788248414</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06138417499861399</v>
+        <v>0.06138417499861398</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,19 +34278,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.7822289404194959</v>
+        <v>0.7822289404194958</v>
       </c>
       <c r="H43" t="n">
-        <v>6.954726397547887</v>
+        <v>6.954726397547886</v>
       </c>
       <c r="I43" t="n">
-        <v>23.52375759006994</v>
+        <v>23.52375759006993</v>
       </c>
       <c r="J43" t="n">
-        <v>55.30358608765836</v>
+        <v>55.30358608765835</v>
       </c>
       <c r="K43" t="n">
-        <v>90.88078053237415</v>
+        <v>90.88078053237413</v>
       </c>
       <c r="L43" t="n">
         <v>116.2961099238222</v>
@@ -34305,13 +34305,13 @@
         <v>110.564505142203</v>
       </c>
       <c r="P43" t="n">
-        <v>94.60703475764518</v>
+        <v>94.60703475764517</v>
       </c>
       <c r="Q43" t="n">
         <v>65.50100700185433</v>
       </c>
       <c r="R43" t="n">
-        <v>35.17185763013478</v>
+        <v>35.17185763013477</v>
       </c>
       <c r="S43" t="n">
         <v>13.63211707985612</v>
@@ -34357,28 +34357,28 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.743845239491612</v>
+        <v>1.743845239491611</v>
       </c>
       <c r="H44" t="n">
         <v>17.85915505894347</v>
       </c>
       <c r="I44" t="n">
-        <v>67.22959359550042</v>
+        <v>67.2295935955004</v>
       </c>
       <c r="J44" t="n">
         <v>148.0066848953013</v>
       </c>
       <c r="K44" t="n">
-        <v>221.8236538829813</v>
+        <v>221.8236538829812</v>
       </c>
       <c r="L44" t="n">
-        <v>275.1918576310727</v>
+        <v>263.9967972453607</v>
       </c>
       <c r="M44" t="n">
-        <v>270.7336270073633</v>
+        <v>281.9286873930753</v>
       </c>
       <c r="N44" t="n">
-        <v>280.9955177623935</v>
+        <v>280.9955177623934</v>
       </c>
       <c r="O44" t="n">
         <v>281.6806655874893</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.9330394599789323</v>
+        <v>0.9330394599789322</v>
       </c>
       <c r="H45" t="n">
-        <v>9.011196889796532</v>
+        <v>9.01119688979653</v>
       </c>
       <c r="I45" t="n">
         <v>32.12438491594131</v>
@@ -34448,13 +34448,13 @@
         <v>88.15176757634291</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>150.6654113949313</v>
       </c>
       <c r="L45" t="n">
-        <v>190.1368339456768</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>147.4371418672528</v>
+        <v>186.195623612483</v>
       </c>
       <c r="N45" t="n">
         <v>182.9241662491359</v>
@@ -34463,7 +34463,7 @@
         <v>194.178698610247</v>
       </c>
       <c r="P45" t="n">
-        <v>178.1696140726437</v>
+        <v>178.1696140726436</v>
       </c>
       <c r="Q45" t="n">
         <v>119.1016686106441</v>
@@ -34478,7 +34478,7 @@
         <v>3.760803788248414</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06138417499861399</v>
+        <v>0.06138417499861398</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,19 +34515,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.7822289404194959</v>
+        <v>0.7822289404194958</v>
       </c>
       <c r="H46" t="n">
-        <v>6.954726397547887</v>
+        <v>6.954726397547886</v>
       </c>
       <c r="I46" t="n">
-        <v>23.52375759006994</v>
+        <v>23.52375759006993</v>
       </c>
       <c r="J46" t="n">
-        <v>55.30358608765836</v>
+        <v>55.30358608765835</v>
       </c>
       <c r="K46" t="n">
-        <v>90.88078053237415</v>
+        <v>90.88078053237413</v>
       </c>
       <c r="L46" t="n">
         <v>116.2961099238222</v>
@@ -34542,13 +34542,13 @@
         <v>110.564505142203</v>
       </c>
       <c r="P46" t="n">
-        <v>94.60703475764518</v>
+        <v>94.60703475764517</v>
       </c>
       <c r="Q46" t="n">
         <v>65.50100700185433</v>
       </c>
       <c r="R46" t="n">
-        <v>35.17185763013478</v>
+        <v>35.17185763013477</v>
       </c>
       <c r="S46" t="n">
         <v>13.63211707985612</v>
@@ -35410,22 +35410,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>1.733802838000713</v>
+        <v>1.733802838000685</v>
       </c>
       <c r="L11" t="n">
         <v>39.42544266108547</v>
       </c>
       <c r="M11" t="n">
-        <v>63.72009317370575</v>
+        <v>63.72009317370569</v>
       </c>
       <c r="N11" t="n">
-        <v>63.72009317370575</v>
+        <v>63.72009317370569</v>
       </c>
       <c r="O11" t="n">
-        <v>63.72009317370575</v>
+        <v>63.72009317370569</v>
       </c>
       <c r="P11" t="n">
-        <v>19.53412949017374</v>
+        <v>19.53412949017371</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35489,19 +35489,19 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>12.82397242057235</v>
       </c>
       <c r="L12" t="n">
-        <v>63.72009317370575</v>
+        <v>48.32157153399372</v>
       </c>
       <c r="M12" t="n">
-        <v>63.72009317370575</v>
+        <v>63.72009317370569</v>
       </c>
       <c r="N12" t="n">
-        <v>63.72009317370575</v>
+        <v>63.72009317370569</v>
       </c>
       <c r="O12" t="n">
-        <v>61.14554395456614</v>
+        <v>63.72009317370569</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35647,22 +35647,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>1.733802838000713</v>
+        <v>1.733802838000685</v>
       </c>
       <c r="L14" t="n">
         <v>39.42544266108547</v>
       </c>
       <c r="M14" t="n">
-        <v>63.72009317370573</v>
+        <v>63.72009317370569</v>
       </c>
       <c r="N14" t="n">
-        <v>63.72009317370573</v>
+        <v>63.72009317370569</v>
       </c>
       <c r="O14" t="n">
-        <v>63.72009317370573</v>
+        <v>63.72009317370569</v>
       </c>
       <c r="P14" t="n">
-        <v>19.53412949017374</v>
+        <v>19.53412949017371</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35726,22 +35726,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>12.82397242057237</v>
+        <v>12.82397242057235</v>
       </c>
       <c r="L15" t="n">
-        <v>63.72009317370573</v>
+        <v>63.72009317370569</v>
       </c>
       <c r="M15" t="n">
-        <v>4.126364875680287</v>
+        <v>63.72009317370569</v>
       </c>
       <c r="N15" t="n">
-        <v>63.72009317370573</v>
+        <v>4.126364875680316</v>
       </c>
       <c r="O15" t="n">
-        <v>63.72009317370573</v>
+        <v>63.72009317370569</v>
       </c>
       <c r="P15" t="n">
-        <v>44.19520665831342</v>
+        <v>44.1952066583134</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35884,22 +35884,22 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>1.733802838000713</v>
+        <v>1.733802838000685</v>
       </c>
       <c r="L17" t="n">
         <v>39.42544266108547</v>
       </c>
       <c r="M17" t="n">
-        <v>63.72009317370573</v>
+        <v>63.72009317370569</v>
       </c>
       <c r="N17" t="n">
-        <v>63.72009317370573</v>
+        <v>63.72009317370569</v>
       </c>
       <c r="O17" t="n">
-        <v>63.72009317370575</v>
+        <v>63.72009317370569</v>
       </c>
       <c r="P17" t="n">
-        <v>19.53412949017374</v>
+        <v>19.53412949017371</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35963,22 +35963,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>12.82397242057235</v>
       </c>
       <c r="L18" t="n">
-        <v>63.72009317370573</v>
+        <v>63.72009317370569</v>
       </c>
       <c r="M18" t="n">
-        <v>63.72009317370573</v>
+        <v>63.72009317370569</v>
       </c>
       <c r="N18" t="n">
-        <v>63.72009317370573</v>
+        <v>4.126364875680316</v>
       </c>
       <c r="O18" t="n">
-        <v>16.95033729625264</v>
+        <v>63.72009317370569</v>
       </c>
       <c r="P18" t="n">
-        <v>44.19520665831342</v>
+        <v>44.1952066583134</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36121,7 +36121,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>1.733802838000713</v>
+        <v>1.733802838000685</v>
       </c>
       <c r="L20" t="n">
         <v>39.42544266108547</v>
@@ -36133,10 +36133,10 @@
         <v>75.8577321816089</v>
       </c>
       <c r="O20" t="n">
-        <v>63.72009317370575</v>
+        <v>63.72009317370569</v>
       </c>
       <c r="P20" t="n">
-        <v>19.53412949017374</v>
+        <v>19.53412949017371</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -36203,19 +36203,19 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>64.03385910721812</v>
+        <v>64.03385910721809</v>
       </c>
       <c r="M21" t="n">
-        <v>40.42143972166164</v>
+        <v>75.8577321816089</v>
       </c>
       <c r="N21" t="n">
         <v>75.8577321816089</v>
       </c>
       <c r="O21" t="n">
-        <v>75.8577321816089</v>
+        <v>40.42143972166174</v>
       </c>
       <c r="P21" t="n">
-        <v>44.19520665831342</v>
+        <v>44.1952066583134</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36358,7 +36358,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>1.733802838000713</v>
+        <v>1.733802838000685</v>
       </c>
       <c r="L23" t="n">
         <v>39.42544266108547</v>
@@ -36370,10 +36370,10 @@
         <v>75.8577321816089</v>
       </c>
       <c r="O23" t="n">
-        <v>63.72009317370575</v>
+        <v>63.72009317370569</v>
       </c>
       <c r="P23" t="n">
-        <v>19.53412949017374</v>
+        <v>19.53412949017371</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36437,13 +36437,13 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>12.82397242057235</v>
       </c>
       <c r="L24" t="n">
-        <v>64.03385910721812</v>
+        <v>64.03385910721809</v>
       </c>
       <c r="M24" t="n">
-        <v>40.42143972166164</v>
+        <v>27.59746730108938</v>
       </c>
       <c r="N24" t="n">
         <v>75.8577321816089</v>
@@ -36452,7 +36452,7 @@
         <v>75.8577321816089</v>
       </c>
       <c r="P24" t="n">
-        <v>44.19520665831342</v>
+        <v>44.1952066583134</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36595,7 +36595,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>1.733802838000713</v>
+        <v>1.733802838000685</v>
       </c>
       <c r="L26" t="n">
         <v>39.42544266108547</v>
@@ -36607,10 +36607,10 @@
         <v>75.8577321816089</v>
       </c>
       <c r="O26" t="n">
-        <v>63.72009317370575</v>
+        <v>63.72009317370569</v>
       </c>
       <c r="P26" t="n">
-        <v>19.53412949017374</v>
+        <v>19.53412949017371</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -36677,19 +36677,19 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>64.03385910721812</v>
+        <v>64.03385910721809</v>
       </c>
       <c r="M27" t="n">
         <v>75.8577321816089</v>
       </c>
       <c r="N27" t="n">
-        <v>40.42143972166163</v>
+        <v>75.8577321816089</v>
       </c>
       <c r="O27" t="n">
-        <v>75.8577321816089</v>
+        <v>40.42143972166174</v>
       </c>
       <c r="P27" t="n">
-        <v>44.19520665831342</v>
+        <v>44.1952066583134</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36832,7 +36832,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>1.733802838000713</v>
+        <v>1.733802838000685</v>
       </c>
       <c r="L29" t="n">
         <v>39.42544266108547</v>
@@ -36844,10 +36844,10 @@
         <v>75.8577321816089</v>
       </c>
       <c r="O29" t="n">
-        <v>63.72009317370575</v>
+        <v>63.72009317370569</v>
       </c>
       <c r="P29" t="n">
-        <v>19.53412949017374</v>
+        <v>19.53412949017371</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36911,22 +36911,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>12.82397242057235</v>
       </c>
       <c r="L30" t="n">
-        <v>64.03385910721812</v>
+        <v>64.03385910721809</v>
       </c>
       <c r="M30" t="n">
-        <v>40.42143972166164</v>
+        <v>75.8577321816089</v>
       </c>
       <c r="N30" t="n">
         <v>75.8577321816089</v>
       </c>
       <c r="O30" t="n">
-        <v>75.8577321816089</v>
+        <v>27.59746730108938</v>
       </c>
       <c r="P30" t="n">
-        <v>44.19520665831342</v>
+        <v>44.1952066583134</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37069,7 +37069,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>1.733802838000713</v>
+        <v>1.733802838000685</v>
       </c>
       <c r="L32" t="n">
         <v>39.42544266108547</v>
@@ -37078,13 +37078,13 @@
         <v>75.8577321816089</v>
       </c>
       <c r="N32" t="n">
-        <v>81.7456020989963</v>
+        <v>81.74560209899624</v>
       </c>
       <c r="O32" t="n">
-        <v>63.72009317370575</v>
+        <v>63.72009317370569</v>
       </c>
       <c r="P32" t="n">
-        <v>19.53412949017374</v>
+        <v>19.53412949017371</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37148,22 +37148,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>12.82397242057235</v>
       </c>
       <c r="L33" t="n">
-        <v>64.03385910721812</v>
+        <v>64.03385910721809</v>
       </c>
       <c r="M33" t="n">
-        <v>81.7456020989963</v>
+        <v>41.48333720194817</v>
       </c>
       <c r="N33" t="n">
-        <v>81.7456020989963</v>
+        <v>81.74560209899624</v>
       </c>
       <c r="O33" t="n">
-        <v>51.95928582240061</v>
+        <v>79.39757829887631</v>
       </c>
       <c r="P33" t="n">
-        <v>44.19520665831342</v>
+        <v>44.1952066583134</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37306,22 +37306,22 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>1.733802838000713</v>
+        <v>1.733802838000685</v>
       </c>
       <c r="L35" t="n">
         <v>39.42544266108547</v>
       </c>
       <c r="M35" t="n">
-        <v>63.72009317370575</v>
+        <v>63.72009317370592</v>
       </c>
       <c r="N35" t="n">
-        <v>63.72009317370575</v>
+        <v>63.72009317370592</v>
       </c>
       <c r="O35" t="n">
-        <v>63.72009317370575</v>
+        <v>63.72009317370569</v>
       </c>
       <c r="P35" t="n">
-        <v>19.53412949017374</v>
+        <v>19.53412949017371</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37385,22 +37385,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>12.82397242057235</v>
       </c>
       <c r="L36" t="n">
-        <v>63.72009317370575</v>
+        <v>63.72009317370592</v>
       </c>
       <c r="M36" t="n">
-        <v>63.72009317370575</v>
+        <v>63.72009317370592</v>
       </c>
       <c r="N36" t="n">
-        <v>63.72009317370575</v>
+        <v>63.72009317370592</v>
       </c>
       <c r="O36" t="n">
-        <v>16.9503372962527</v>
+        <v>4.126364875680546</v>
       </c>
       <c r="P36" t="n">
-        <v>44.19520665831342</v>
+        <v>44.1952066583134</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37543,22 +37543,22 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>1.733802838000713</v>
+        <v>1.733802838000685</v>
       </c>
       <c r="L38" t="n">
         <v>39.42544266108547</v>
       </c>
       <c r="M38" t="n">
-        <v>63.72009317370575</v>
+        <v>63.72009317370569</v>
       </c>
       <c r="N38" t="n">
-        <v>63.72009317370575</v>
+        <v>63.72009317370569</v>
       </c>
       <c r="O38" t="n">
-        <v>63.72009317370575</v>
+        <v>63.72009317370569</v>
       </c>
       <c r="P38" t="n">
-        <v>19.53412949017374</v>
+        <v>19.53412949017371</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37622,22 +37622,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>12.82397242057237</v>
+        <v>12.82397242057235</v>
       </c>
       <c r="L39" t="n">
-        <v>63.72009317370575</v>
+        <v>63.72009317370569</v>
       </c>
       <c r="M39" t="n">
+        <v>63.72009317370569</v>
+      </c>
+      <c r="N39" t="n">
         <v>4.126364875680316</v>
       </c>
-      <c r="N39" t="n">
-        <v>63.72009317370575</v>
-      </c>
       <c r="O39" t="n">
-        <v>63.72009317370575</v>
+        <v>63.72009317370569</v>
       </c>
       <c r="P39" t="n">
-        <v>44.19520665831342</v>
+        <v>44.1952066583134</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37780,22 +37780,22 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>1.733802838000713</v>
+        <v>1.733802838000685</v>
       </c>
       <c r="L41" t="n">
         <v>39.42544266108547</v>
       </c>
       <c r="M41" t="n">
-        <v>63.72009317370575</v>
+        <v>63.72009317370569</v>
       </c>
       <c r="N41" t="n">
-        <v>63.72009317370575</v>
+        <v>63.72009317370569</v>
       </c>
       <c r="O41" t="n">
-        <v>63.72009317370575</v>
+        <v>63.72009317370569</v>
       </c>
       <c r="P41" t="n">
-        <v>19.53412949017374</v>
+        <v>19.53412949017371</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37859,22 +37859,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>12.82397242057235</v>
       </c>
       <c r="L42" t="n">
-        <v>63.72009317370575</v>
+        <v>63.72009317370569</v>
       </c>
       <c r="M42" t="n">
-        <v>16.95033729625269</v>
+        <v>63.72009317370569</v>
       </c>
       <c r="N42" t="n">
-        <v>63.72009317370575</v>
+        <v>4.126364875680316</v>
       </c>
       <c r="O42" t="n">
-        <v>63.72009317370575</v>
+        <v>63.72009317370569</v>
       </c>
       <c r="P42" t="n">
-        <v>44.19520665831342</v>
+        <v>44.1952066583134</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38017,22 +38017,22 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>1.733802838000713</v>
+        <v>1.733802838000685</v>
       </c>
       <c r="L44" t="n">
-        <v>39.42544266108547</v>
+        <v>28.23038227537349</v>
       </c>
       <c r="M44" t="n">
-        <v>40.38739378009063</v>
+        <v>51.58245416580254</v>
       </c>
       <c r="N44" t="n">
-        <v>51.58245416580259</v>
+        <v>51.58245416580254</v>
       </c>
       <c r="O44" t="n">
-        <v>51.58245416580259</v>
+        <v>51.58245416580254</v>
       </c>
       <c r="P44" t="n">
-        <v>19.53412949017374</v>
+        <v>19.53412949017371</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38096,22 +38096,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>12.82397242057235</v>
       </c>
       <c r="L45" t="n">
-        <v>51.58245416580259</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>5.303107945234514</v>
+        <v>44.06158969046469</v>
       </c>
       <c r="N45" t="n">
-        <v>51.58245416580259</v>
+        <v>51.58245416580254</v>
       </c>
       <c r="O45" t="n">
-        <v>51.58245416580259</v>
+        <v>51.58245416580254</v>
       </c>
       <c r="P45" t="n">
-        <v>44.19520665831342</v>
+        <v>44.1952066583134</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
